--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1FAB0D-223B-43DC-8B49-17A91E7EF192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D30E5C-D891-4DCA-B04D-4A1D143B53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22490" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="71">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>54952 15</t>
   </si>
 </sst>
 </file>
@@ -314,7 +311,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -631,10 +628,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,7 +640,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,10 +649,10 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,19 +673,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3512,8 +3509,8 @@
       <c r="L23" s="1">
         <v>8699.25</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>71</v>
+      <c r="M23" s="1">
+        <v>54952.15</v>
       </c>
       <c r="N23" s="1">
         <v>8132.25</v>
@@ -4339,7 +4336,7 @@
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>14697312.070000002</v>
+        <v>14752264.220000003</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
@@ -4565,9 +4562,9 @@
         <f t="shared" ref="L38:N38" si="44">ROUNDDOWN(L23/10000,0)</f>
         <v>0</v>
       </c>
-      <c r="M38" s="1" t="e">
+      <c r="M38" s="1">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="44"/>
@@ -4614,7 +4611,7 @@
         <v>53</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ref="L39:N39" si="48">ROUNDDOWN(L24/10000,0)</f>
+        <f t="shared" ref="L38:N39" si="48">ROUNDDOWN(L24/10000,0)</f>
         <v>0</v>
       </c>
       <c r="M39" s="1">
@@ -5087,7 +5084,7 @@
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
@@ -5096,23 +5093,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5129,6 +5109,23 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P4:AG28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D30E5C-D891-4DCA-B04D-4A1D143B53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D2455-5EC1-4F36-B88D-ADE09387318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22490" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3730" yWindow="1550" windowWidth="22490" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -1083,14 +1083,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="J2" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="8" width="8.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -4611,7 +4610,7 @@
         <v>53</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ref="L38:N39" si="48">ROUNDDOWN(L24/10000,0)</f>
+        <f t="shared" ref="L39:N39" si="48">ROUNDDOWN(L24/10000,0)</f>
         <v>0</v>
       </c>
       <c r="M39" s="1">
@@ -5093,6 +5092,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5109,23 +5125,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P4:AG28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D2455-5EC1-4F36-B88D-ADE09387318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BDCEA0-4CFD-4E54-9957-A4DCB62D9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3730" yWindow="1550" windowWidth="22490" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="910" windowWidth="22490" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="J2" sqref="I1:J1048576"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1098,8 +1098,8 @@
     <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13.58203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.25" style="1" customWidth="1"/>
-    <col min="19" max="21" width="7.08203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="7.08203125" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="7.08203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="8.25" style="1" customWidth="1"/>
@@ -1302,7 +1302,7 @@
         <v>2516416.9500000002</v>
       </c>
       <c r="N3" s="3">
-        <v>53803</v>
+        <v>65514</v>
       </c>
       <c r="O3" s="39"/>
       <c r="P3" s="41"/>
@@ -1603,13 +1603,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="3">
-        <v>138943</v>
+        <v>140261</v>
       </c>
       <c r="M6" s="3">
-        <v>463438</v>
+        <v>464756</v>
       </c>
       <c r="N6" s="3">
-        <v>33785</v>
+        <v>42800</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="25" t="s">
@@ -1841,15 +1841,15 @@
       </c>
       <c r="L8" s="4">
         <f>SUM(L3:L7)</f>
-        <v>454795</v>
+        <v>456113</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(M3:M7)</f>
-        <v>4188614.5500000003</v>
+        <v>4189932.5500000003</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>588846.1</v>
+        <v>609572.1</v>
       </c>
       <c r="O8" s="34"/>
       <c r="P8" s="20" t="s">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Q8" s="21">
         <f>R8+V8+Z8+AD8</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R8" s="21">
         <f>SUM(S8:U8)</f>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="V8" s="21">
         <f>SUM(W8:Y8)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W8" s="21">
         <v>0</v>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="Y8" s="21">
         <f>N18</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z8" s="21">
         <f>SUM(AA8:AC8)</f>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>119773</v>
+        <v>131484</v>
       </c>
       <c r="O9" s="32" t="s">
         <v>1</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" s="33"/>
       <c r="P12" s="8" t="s">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="8"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" s="33"/>
       <c r="P15" s="8" t="s">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="Q15" s="10">
         <f>R15+V15+Z15+AD15</f>
-        <v>44.546700000000001</v>
+        <v>45.546700000000001</v>
       </c>
       <c r="R15" s="10">
         <f>SUM(S15:U15)</f>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="V15" s="10">
         <f>SUM(W15:Y15)</f>
-        <v>23.3443</v>
+        <v>24.3443</v>
       </c>
       <c r="W15" s="10">
         <v>4.3442999999999996</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="Y15" s="10">
         <f>L15</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z15" s="10">
         <f>SUM(AA15:AC15)</f>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="Q16" s="26">
         <f>Q15/Q14</f>
-        <v>0.25310625000000003</v>
+        <v>0.25878806818181821</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" ref="R16:AG16" si="19">R15/R14</f>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="V16" s="26">
         <f t="shared" si="19"/>
-        <v>0.53461534938258037</v>
+        <v>0.55751667216298417</v>
       </c>
       <c r="W16" s="26">
         <f t="shared" si="19"/>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="Y16" s="26">
         <f t="shared" si="19"/>
-        <v>0.78411503570739238</v>
+        <v>0.84443157691565329</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="19"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O17" s="33"/>
       <c r="P17" s="8" t="s">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="Q17" s="10">
         <f>ROUNDUP(Q14-Q15,0)</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" ref="R17:AG17" si="22">ROUNDUP(R14-R15,0)</f>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="V17" s="10">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="22"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="10">
         <f t="shared" si="22"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="20" t="s">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="Q18" s="21">
         <f>R18+V18+Z18+AD18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" s="21">
         <f>SUM(S18:U18)</f>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="V18" s="21">
         <f>SUM(W18:Y18)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W18" s="21">
         <v>0</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="Y18" s="21">
         <f>N15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="21">
         <f>SUM(AA18:AC18)</f>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q20" s="10">
         <f>Q15+Q10+Q5</f>
-        <v>415.13477499999999</v>
+        <v>416.13477499999999</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="25"/>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="V20" s="10">
         <f t="shared" si="25"/>
-        <v>197.99429999999998</v>
+        <v>198.99429999999998</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="25"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="25"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="25"/>
@@ -3280,7 +3280,7 @@
         <v>9189603.3000000007</v>
       </c>
       <c r="N21" s="1">
-        <v>3868758</v>
+        <v>3886755</v>
       </c>
       <c r="O21" s="33"/>
       <c r="P21" s="14" t="s">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="Q21" s="26">
         <f>Q20/Q19</f>
-        <v>0.34594564583333332</v>
+        <v>0.34677897916666667</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="V21" s="26">
         <f t="shared" si="26"/>
-        <v>0.66503526803708179</v>
+        <v>0.66839412871154102</v>
       </c>
       <c r="W21" s="26">
         <f t="shared" si="26"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="Y21" s="26">
         <f t="shared" si="26"/>
-        <v>0.38924274593064395</v>
+        <v>0.3980891719745222</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="Q22" s="10">
         <f>ROUNDUP(Q19-Q20,0)</f>
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="V22" s="10">
         <f t="shared" si="27"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="27"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="27"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="27"/>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3721,13 +3721,13 @@
         <v>54</v>
       </c>
       <c r="L25" s="1">
-        <v>132283.20000000001</v>
+        <v>159034.04999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>812029.8</v>
+        <v>838780.65</v>
       </c>
       <c r="N25" s="1">
-        <v>91983.15</v>
+        <v>65232.3</v>
       </c>
       <c r="O25" s="33"/>
       <c r="P25" s="8" t="s">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>1889</v>
+        <v>1905</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3825,7 +3825,7 @@
         <v>869517.5</v>
       </c>
       <c r="N26" s="1">
-        <v>216301</v>
+        <v>219384</v>
       </c>
       <c r="O26" s="33"/>
       <c r="P26" s="14" t="s">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.26794326241134753</v>
+        <v>0.27021276595744681</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.50197100802982098</v>
+        <v>0.51111854348366736</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.27405098552950563</v>
+        <v>0.29814337986176986</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>5161</v>
+        <v>5145</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4051,13 +4051,13 @@
         <v>57</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>128840</v>
       </c>
       <c r="M28" s="1">
-        <v>990873</v>
+        <v>1119713</v>
       </c>
       <c r="N28" s="1">
-        <v>194405</v>
+        <v>65565</v>
       </c>
       <c r="O28" s="34"/>
       <c r="P28" s="20" t="s">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4149,13 +4149,13 @@
         <v>58</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>7154</v>
       </c>
       <c r="M29" s="1">
-        <v>442596</v>
+        <v>449750</v>
       </c>
       <c r="N29" s="1">
-        <v>49504</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -4331,15 +4331,15 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>1370075.45</v>
+        <v>1532820.3</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>14752264.220000003</v>
+        <v>14915009.070000002</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4835605.4000000004</v>
+        <v>4693940.55</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" si="35"/>
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" ref="L40:N40" si="52">ROUNDDOWN(L25/10000,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="52"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="52"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4819,15 +4819,15 @@
       </c>
       <c r="L43" s="1">
         <f t="shared" ref="L43:N43" si="64">ROUNDDOWN(L28/10000,0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="64"/>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="64"/>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -5079,36 +5079,19 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1475</v>
+        <v>1491</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5125,6 +5108,23 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P4:AG28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BDCEA0-4CFD-4E54-9957-A4DCB62D9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF49FF6B-376D-40A6-B026-D40638E4527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="910" windowWidth="22490" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -310,8 +321,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -620,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,6 +713,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1081,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1098,8 +1113,8 @@
     <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13.58203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.25" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="7.08203125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="1" customWidth="1"/>
+    <col min="19" max="21" width="7.08203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="7.08203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="8.25" style="1" customWidth="1"/>
@@ -1108,59 +1123,61 @@
     <col min="29" max="30" width="8.25" style="1" customWidth="1"/>
     <col min="31" max="31" width="7.08203125" style="1" customWidth="1"/>
     <col min="32" max="33" width="8.25" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.6640625" style="1"/>
+    <col min="34" max="35" width="8.6640625" style="1"/>
+    <col min="36" max="36" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:36" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="35" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="38"/>
     </row>
-    <row r="2" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,13 +1220,13 @@
       <c r="N2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="23" t="s">
@@ -1261,7 +1278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1296,17 +1313,17 @@
         <v>45</v>
       </c>
       <c r="L3" s="3">
-        <v>154610</v>
+        <v>187984</v>
       </c>
       <c r="M3" s="3">
-        <v>2516416.9500000002</v>
+        <v>2549790.9500000002</v>
       </c>
       <c r="N3" s="3">
-        <v>65514</v>
-      </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="43"/>
+        <v>35419</v>
+      </c>
+      <c r="O3" s="40"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="24">
         <v>0.12740000000000001</v>
       </c>
@@ -1356,7 +1373,7 @@
         <v>0.1482</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1391,15 +1408,15 @@
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>11172</v>
+        <v>415622.65</v>
       </c>
       <c r="M4" s="3">
-        <v>161696.6</v>
+        <v>566147.25</v>
       </c>
       <c r="N4" s="3">
-        <v>435288.1</v>
-      </c>
-      <c r="O4" s="32" t="s">
+        <v>35902.65</v>
+      </c>
+      <c r="O4" s="33" t="s">
         <v>33</v>
       </c>
       <c r="P4" s="17" t="s">
@@ -1473,7 +1490,7 @@
         <v>129.52680000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1516,13 +1533,13 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="33"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="10">
         <f>R5+V5+Z5+AD5</f>
-        <v>355.079095</v>
+        <v>361.079095</v>
       </c>
       <c r="R5" s="10">
         <f>SUM(S5:U5)</f>
@@ -1539,7 +1556,7 @@
       </c>
       <c r="V5" s="10">
         <f>SUM(W5:Y5)</f>
-        <v>172.45</v>
+        <v>178.45</v>
       </c>
       <c r="W5" s="10">
         <f>28.21+10.94+8.3</f>
@@ -1551,7 +1568,7 @@
       </c>
       <c r="Y5" s="10">
         <f>L18</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="10">
         <f>SUM(AA5:AC5)</f>
@@ -1568,7 +1585,7 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1603,21 +1620,21 @@
         <v>2</v>
       </c>
       <c r="L6" s="3">
-        <v>140261</v>
+        <v>154567</v>
       </c>
       <c r="M6" s="3">
-        <v>464756</v>
+        <v>479062</v>
       </c>
       <c r="N6" s="3">
-        <v>42800</v>
-      </c>
-      <c r="O6" s="33"/>
+        <v>153385</v>
+      </c>
+      <c r="O6" s="34"/>
       <c r="P6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="26">
         <f>Q5/Q4</f>
-        <v>0.40626898741418765</v>
+        <v>0.41313397597254004</v>
       </c>
       <c r="R6" s="26">
         <f t="shared" ref="R6:AG6" si="1">R5/R4</f>
@@ -1637,7 +1654,7 @@
       </c>
       <c r="V6" s="26">
         <f t="shared" si="1"/>
-        <v>0.79528904802356026</v>
+        <v>0.82295929614267516</v>
       </c>
       <c r="W6" s="26">
         <f t="shared" si="1"/>
@@ -1649,7 +1666,7 @@
       </c>
       <c r="Y6" s="26">
         <f t="shared" si="1"/>
-        <v>0.36438368144121031</v>
+        <v>0.43726041772945234</v>
       </c>
       <c r="Z6" s="26">
         <f t="shared" si="1"/>
@@ -1684,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1719,21 +1736,21 @@
         <v>3</v>
       </c>
       <c r="L7" s="3">
-        <v>116847</v>
+        <v>141847</v>
       </c>
       <c r="M7" s="3">
-        <v>739159</v>
+        <v>764159</v>
       </c>
       <c r="N7" s="3">
-        <v>65970</v>
-      </c>
-      <c r="O7" s="33"/>
+        <v>194993</v>
+      </c>
+      <c r="O7" s="34"/>
       <c r="P7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="Q7" s="10">
         <f>ROUNDUP(Q4-Q5,0)</f>
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" ref="R7:AG7" si="2">ROUNDUP(R4-R5,0)</f>
@@ -1753,7 +1770,7 @@
       </c>
       <c r="V7" s="10">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="2"/>
@@ -1765,7 +1782,7 @@
       </c>
       <c r="Y7" s="10">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Z7" s="10">
         <f t="shared" si="2"/>
@@ -1800,7 +1817,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1841,23 +1858,23 @@
       </c>
       <c r="L8" s="4">
         <f>SUM(L3:L7)</f>
-        <v>456113</v>
+        <v>933243.65</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(M3:M7)</f>
-        <v>4189932.5500000003</v>
+        <v>4667063.2</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>609572.1</v>
-      </c>
-      <c r="O8" s="34"/>
+        <v>419699.65</v>
+      </c>
+      <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
         <v>47</v>
       </c>
       <c r="Q8" s="21">
         <f>R8+V8+Z8+AD8</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="R8" s="21">
         <f>SUM(S8:U8)</f>
@@ -1874,7 +1891,7 @@
       </c>
       <c r="V8" s="21">
         <f>SUM(W8:Y8)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="W8" s="21">
         <v>0</v>
@@ -1884,7 +1901,7 @@
       </c>
       <c r="Y8" s="21">
         <f>N18</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z8" s="21">
         <f>SUM(AA8:AC8)</f>
@@ -1901,7 +1918,7 @@
       <c r="AF8" s="21"/>
       <c r="AG8" s="22"/>
     </row>
-    <row r="9" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -1942,17 +1959,17 @@
       </c>
       <c r="L9" s="4" cm="1">
         <f t="array" ref="L9">SUM(SUMIFS(L3:L7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>304680</v>
+        <v>363054</v>
       </c>
       <c r="M9" s="4" cm="1">
         <f t="array" ref="M9">SUM(SUMIFS(M3:M7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>3563479.95</v>
+        <v>3621853.95</v>
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>131484</v>
-      </c>
-      <c r="O9" s="32" t="s">
+        <v>230412</v>
+      </c>
+      <c r="O9" s="33" t="s">
         <v>1</v>
       </c>
       <c r="P9" s="17" t="s">
@@ -2026,40 +2043,40 @@
         <v>22.23</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="33"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q10" s="10">
         <f>R10+V10+Z10+AD10</f>
-        <v>15.508980000000001</v>
+        <v>55.508980000000001</v>
       </c>
       <c r="R10" s="10">
         <f>SUM(S10:U10)</f>
@@ -2076,7 +2093,7 @@
       </c>
       <c r="V10" s="10">
         <f>SUM(W10:Y10)</f>
-        <v>2.2000000000000002</v>
+        <v>42.2</v>
       </c>
       <c r="W10" s="10">
         <v>1.2</v>
@@ -2087,7 +2104,7 @@
       </c>
       <c r="Y10" s="10">
         <f>L13</f>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Z10" s="10">
         <f>SUM(AA10:AC10)</f>
@@ -2103,8 +2120,12 @@
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="11"/>
+      <c r="AJ10" s="28">
+        <f>(R10+V10)/(R9+V9)</f>
+        <v>0.98551229471815349</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,13 +2168,13 @@
       <c r="N11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="33"/>
+      <c r="O11" s="34"/>
       <c r="P11" s="14" t="s">
         <v>38</v>
       </c>
       <c r="Q11" s="26">
         <f>Q10/Q9</f>
-        <v>0.1033932</v>
+        <v>0.37005986666666668</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" ref="R11:AG11" si="4">R10/R9</f>
@@ -2173,7 +2194,7 @@
       </c>
       <c r="V11" s="26">
         <f t="shared" si="4"/>
-        <v>5.9115947870482341E-2</v>
+        <v>1.1339513636974341</v>
       </c>
       <c r="W11" s="26">
         <f t="shared" si="4"/>
@@ -2185,7 +2206,7 @@
       </c>
       <c r="Y11" s="26">
         <f t="shared" si="4"/>
-        <v>7.0771408351026188E-2</v>
+        <v>2.9016277423920736</v>
       </c>
       <c r="Z11" s="26">
         <f t="shared" si="4"/>
@@ -2220,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2261,23 +2282,23 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" ref="L12:N18" si="8">ROUNDDOWN(L3/10000,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="8"/>
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O12" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="O12" s="34"/>
       <c r="P12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="10">
         <f>ROUNDUP(Q9-Q10,0)</f>
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" ref="R12:AG12" si="9">ROUNDUP(R9-R10,0)</f>
@@ -2297,7 +2318,7 @@
       </c>
       <c r="V12" s="10">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>-5</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="9"/>
@@ -2309,7 +2330,7 @@
       </c>
       <c r="Y12" s="10">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-27</v>
       </c>
       <c r="Z12" s="10">
         <f t="shared" si="9"/>
@@ -2344,7 +2365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -2385,23 +2406,23 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="O13" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="35"/>
       <c r="P13" s="20" t="s">
         <v>47</v>
       </c>
       <c r="Q13" s="21">
         <f>R13+V13+Z13+AD13</f>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="R13" s="21">
         <f>SUM(S13:U13)</f>
@@ -2418,7 +2439,7 @@
       </c>
       <c r="V13" s="21">
         <f>SUM(W13:Y13)</f>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="W13" s="21">
         <v>0</v>
@@ -2428,7 +2449,7 @@
       </c>
       <c r="Y13" s="21">
         <f>N13</f>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="21">
         <f>SUM(AA13:AC13)</f>
@@ -2445,7 +2466,7 @@
       <c r="AF13" s="21"/>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2517,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="33" t="s">
         <v>2</v>
       </c>
       <c r="P14" s="17" t="s">
@@ -2570,7 +2591,7 @@
         <v>26.083199999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2611,23 +2632,23 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O15" s="33"/>
+        <v>15</v>
+      </c>
+      <c r="O15" s="34"/>
       <c r="P15" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q15" s="10">
         <f>R15+V15+Z15+AD15</f>
-        <v>45.546700000000001</v>
+        <v>46.546700000000001</v>
       </c>
       <c r="R15" s="10">
         <f>SUM(S15:U15)</f>
@@ -2644,7 +2665,7 @@
       </c>
       <c r="V15" s="10">
         <f>SUM(W15:Y15)</f>
-        <v>24.3443</v>
+        <v>25.3443</v>
       </c>
       <c r="W15" s="10">
         <v>4.3442999999999996</v>
@@ -2655,7 +2676,7 @@
       </c>
       <c r="Y15" s="10">
         <f>L15</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z15" s="10">
         <f>SUM(AA15:AC15)</f>
@@ -2672,7 +2693,7 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="11"/>
     </row>
-    <row r="16" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2713,23 +2734,23 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="8"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O16" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="O16" s="34"/>
       <c r="P16" s="14" t="s">
         <v>38</v>
       </c>
       <c r="Q16" s="26">
         <f>Q15/Q14</f>
-        <v>0.25878806818181821</v>
+        <v>0.26446988636363639</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" ref="R16:AG16" si="19">R15/R14</f>
@@ -2749,7 +2770,7 @@
       </c>
       <c r="V16" s="26">
         <f t="shared" si="19"/>
-        <v>0.55751667216298417</v>
+        <v>0.58041799494338797</v>
       </c>
       <c r="W16" s="26">
         <f t="shared" si="19"/>
@@ -2761,7 +2782,7 @@
       </c>
       <c r="Y16" s="26">
         <f t="shared" si="19"/>
-        <v>0.84443157691565329</v>
+        <v>0.90474811812391431</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="19"/>
@@ -2837,23 +2858,23 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="8"/>
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="O17" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="O17" s="34"/>
       <c r="P17" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="10">
         <f>ROUNDUP(Q14-Q15,0)</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" ref="R17:AG17" si="22">ROUNDUP(R14-R15,0)</f>
@@ -2873,7 +2894,7 @@
       </c>
       <c r="V17" s="10">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="22"/>
@@ -2885,7 +2906,7 @@
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="10">
         <f t="shared" si="22"/>
@@ -2961,23 +2982,23 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="8"/>
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="O18" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="O18" s="35"/>
       <c r="P18" s="20" t="s">
         <v>47</v>
       </c>
       <c r="Q18" s="21">
         <f>R18+V18+Z18+AD18</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R18" s="21">
         <f>SUM(S18:U18)</f>
@@ -2994,7 +3015,7 @@
       </c>
       <c r="V18" s="21">
         <f>SUM(W18:Y18)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="W18" s="21">
         <v>0</v>
@@ -3004,7 +3025,7 @@
       </c>
       <c r="Y18" s="21">
         <f>N15</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z18" s="21">
         <f>SUM(AA18:AC18)</f>
@@ -3022,33 +3043,33 @@
       <c r="AG18" s="22"/>
     </row>
     <row r="19" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="29" t="s">
+      <c r="J19" s="32"/>
+      <c r="K19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="32" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="33" t="s">
         <v>41</v>
       </c>
       <c r="P19" s="17" t="s">
@@ -3166,13 +3187,13 @@
       <c r="N20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q20" s="10">
         <f>Q15+Q10+Q5</f>
-        <v>416.13477499999999</v>
+        <v>463.13477499999999</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="25"/>
@@ -3192,7 +3213,7 @@
       </c>
       <c r="V20" s="10">
         <f t="shared" si="25"/>
-        <v>198.99429999999998</v>
+        <v>245.99430000000001</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="25"/>
@@ -3204,7 +3225,7 @@
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="25"/>
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="25"/>
@@ -3274,21 +3295,21 @@
         <v>50</v>
       </c>
       <c r="L21" s="1">
-        <v>1022027</v>
+        <v>1129266</v>
       </c>
       <c r="M21" s="1">
-        <v>9189603.3000000007</v>
+        <v>9296842.3000000007</v>
       </c>
       <c r="N21" s="1">
-        <v>3886755</v>
-      </c>
-      <c r="O21" s="33"/>
+        <v>3899970</v>
+      </c>
+      <c r="O21" s="34"/>
       <c r="P21" s="14" t="s">
         <v>38</v>
       </c>
       <c r="Q21" s="26">
         <f>Q20/Q19</f>
-        <v>0.34677897916666667</v>
+        <v>0.38594564583333335</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
@@ -3308,7 +3329,7 @@
       </c>
       <c r="V21" s="26">
         <f t="shared" si="26"/>
-        <v>0.66839412871154102</v>
+        <v>0.82626058041112471</v>
       </c>
       <c r="W21" s="26">
         <f t="shared" si="26"/>
@@ -3320,7 +3341,7 @@
       </c>
       <c r="Y21" s="26">
         <f t="shared" si="26"/>
-        <v>0.3980891719745222</v>
+        <v>0.81387119603680103</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
@@ -3396,15 +3417,15 @@
         <v>500166.47</v>
       </c>
       <c r="N22" s="1">
-        <v>16182</v>
-      </c>
-      <c r="O22" s="33"/>
+        <v>29813</v>
+      </c>
+      <c r="O22" s="34"/>
       <c r="P22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q22" s="10">
         <f>ROUNDUP(Q19-Q20,0)</f>
-        <v>784</v>
+        <v>737</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
@@ -3424,7 +3445,7 @@
       </c>
       <c r="V22" s="10">
         <f t="shared" si="27"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="27"/>
@@ -3436,7 +3457,7 @@
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="27"/>
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="27"/>
@@ -3506,21 +3527,21 @@
         <v>52</v>
       </c>
       <c r="L23" s="1">
-        <v>8699.25</v>
+        <v>16831.5</v>
       </c>
       <c r="M23" s="1">
-        <v>54952.15</v>
+        <v>63084.4</v>
       </c>
       <c r="N23" s="1">
-        <v>8132.25</v>
-      </c>
-      <c r="O23" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="35"/>
       <c r="P23" s="20" t="s">
         <v>47</v>
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3540,7 +3561,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3552,7 +3573,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3612,7 +3633,7 @@
       <c r="N24" s="1">
         <v>2928</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="33" t="s">
         <v>49</v>
       </c>
       <c r="P24" s="17" t="s">
@@ -3727,15 +3748,15 @@
         <v>838780.65</v>
       </c>
       <c r="N25" s="1">
-        <v>65232.3</v>
-      </c>
-      <c r="O25" s="33"/>
+        <v>103201.35</v>
+      </c>
+      <c r="O25" s="34"/>
       <c r="P25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>1905</v>
+        <v>1976</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3755,7 +3776,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>894</v>
+        <v>965</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3767,7 +3788,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3825,15 +3846,15 @@
         <v>869517.5</v>
       </c>
       <c r="N26" s="1">
-        <v>219384</v>
-      </c>
-      <c r="O26" s="33"/>
+        <v>259263</v>
+      </c>
+      <c r="O26" s="34"/>
       <c r="P26" s="14" t="s">
         <v>38</v>
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.27021276595744681</v>
+        <v>0.28028368794326242</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3853,7 +3874,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.51111854348366736</v>
+        <v>0.55171073206011079</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3865,7 +3886,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.29814337986176986</v>
+        <v>0.40505337971119243</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3935,21 +3956,21 @@
         <v>56</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>113856</v>
       </c>
       <c r="M27" s="1">
-        <v>677479.8</v>
+        <v>791335.8</v>
       </c>
       <c r="N27" s="1">
-        <v>294272</v>
-      </c>
-      <c r="O27" s="33"/>
+        <v>180416</v>
+      </c>
+      <c r="O27" s="34"/>
       <c r="P27" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>5145</v>
+        <v>5074</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3969,7 +3990,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>856</v>
+        <v>785</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -3981,7 +4002,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>467</v>
+        <v>396</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4059,13 +4080,13 @@
       <c r="N28" s="1">
         <v>65565</v>
       </c>
-      <c r="O28" s="34"/>
+      <c r="O28" s="35"/>
       <c r="P28" s="20" t="s">
         <v>47</v>
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4085,7 +4106,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4097,7 +4118,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4287,7 +4308,7 @@
         <v>179381</v>
       </c>
       <c r="N32" s="1">
-        <v>93140</v>
+        <v>175870</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -4331,44 +4352,44 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>1532820.3</v>
+        <v>1762047.55</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>14915009.070000002</v>
+        <v>15144236.320000002</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4693940.55</v>
+        <v>4759376.3499999996</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31" t="s">
+      <c r="H34" s="32"/>
+      <c r="I34" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="29" t="s">
+      <c r="J34" s="32"/>
+      <c r="K34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -4455,15 +4476,15 @@
       </c>
       <c r="L36" s="1">
         <f>ROUNDDOWN(L21/10000,0)</f>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ref="M36:N36" si="35">ROUNDDOWN(M21/10000,0)</f>
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="35"/>
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4515,7 +4536,7 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -4559,11 +4580,11 @@
       </c>
       <c r="L38" s="1">
         <f t="shared" ref="L38:N38" si="44">ROUNDDOWN(L23/10000,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="44"/>
@@ -4671,7 +4692,7 @@
       </c>
       <c r="N40" s="1">
         <f t="shared" si="52"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4723,7 +4744,7 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" si="56"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -4767,15 +4788,15 @@
       </c>
       <c r="L42" s="1">
         <f t="shared" ref="L42:N42" si="60">ROUNDDOWN(L27/10000,0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="60"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="60"/>
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -5035,7 +5056,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" si="80"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -5079,15 +5100,15 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1491</v>
+        <v>1514</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF49FF6B-376D-40A6-B026-D40638E4527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE66381-0D3A-4DA7-A8E0-EB8ADEC42085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
         <v>2549790.9500000002</v>
       </c>
       <c r="N3" s="3">
-        <v>35419</v>
+        <v>275389</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42"/>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>419699.65</v>
+        <v>659669.65</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="Q8" s="21">
         <f>R8+V8+Z8+AD8</f>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="R8" s="21">
         <f>SUM(S8:U8)</f>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="V8" s="21">
         <f>SUM(W8:Y8)</f>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="W8" s="21">
         <v>0</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="Y8" s="21">
         <f>N18</f>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="Z8" s="21">
         <f>SUM(AA8:AC8)</f>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>230412</v>
+        <v>470382</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>1</v>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="8" t="s">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="8" t="s">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="20" t="s">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3840,13 +3840,13 @@
         <v>55</v>
       </c>
       <c r="L26" s="1">
-        <v>21462</v>
+        <v>139389</v>
       </c>
       <c r="M26" s="1">
-        <v>869517.5</v>
+        <v>987444.5</v>
       </c>
       <c r="N26" s="1">
-        <v>259263</v>
+        <v>141336</v>
       </c>
       <c r="O26" s="34"/>
       <c r="P26" s="14" t="s">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.28028368794326242</v>
+        <v>0.28184397163120567</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.55171073206011079</v>
+        <v>0.55799966268463008</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.40505337971119243</v>
+        <v>0.42161690081462405</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>5074</v>
+        <v>5063</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4308,7 +4308,7 @@
         <v>179381</v>
       </c>
       <c r="N32" s="1">
-        <v>175870</v>
+        <v>93140</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -4352,15 +4352,15 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>1762047.55</v>
+        <v>1879974.55</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>15144236.320000002</v>
+        <v>15262163.320000002</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4759376.3499999996</v>
+        <v>4558719.3499999996</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -4736,15 +4736,15 @@
       </c>
       <c r="L41" s="1">
         <f t="shared" ref="L41:N41" si="56">ROUNDDOWN(L26/10000,0)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="56"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="56"/>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" si="80"/>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -5100,15 +5100,15 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1514</v>
+        <v>1526</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE66381-0D3A-4DA7-A8E0-EB8ADEC42085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99E812-9DFA-48DC-B18D-348BC273469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
         <v>2549790.9500000002</v>
       </c>
       <c r="N3" s="3">
-        <v>275389</v>
+        <v>288455</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42"/>
@@ -1408,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>415622.65</v>
+        <v>421600.3</v>
       </c>
       <c r="M4" s="3">
-        <v>566147.25</v>
+        <v>572124.9</v>
       </c>
       <c r="N4" s="3">
-        <v>35902.65</v>
+        <v>29925</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>33</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Q5" s="10">
         <f>R5+V5+Z5+AD5</f>
-        <v>361.079095</v>
+        <v>364.079095</v>
       </c>
       <c r="R5" s="10">
         <f>SUM(S5:U5)</f>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="V5" s="10">
         <f>SUM(W5:Y5)</f>
-        <v>178.45</v>
+        <v>181.45</v>
       </c>
       <c r="W5" s="10">
         <f>28.21+10.94+8.3</f>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="Y5" s="10">
         <f>L18</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="10">
         <f>SUM(AA5:AC5)</f>
@@ -1620,13 +1620,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="3">
-        <v>154567</v>
+        <v>159877</v>
       </c>
       <c r="M6" s="3">
-        <v>479062</v>
+        <v>484372</v>
       </c>
       <c r="N6" s="3">
-        <v>153385</v>
+        <v>148125</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="25" t="s">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="Q6" s="26">
         <f>Q5/Q4</f>
-        <v>0.41313397597254004</v>
+        <v>0.41656647025171623</v>
       </c>
       <c r="R6" s="26">
         <f t="shared" ref="R6:AG6" si="1">R5/R4</f>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="V6" s="26">
         <f t="shared" si="1"/>
-        <v>0.82295929614267516</v>
+        <v>0.8367944202022326</v>
       </c>
       <c r="W6" s="26">
         <f t="shared" si="1"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="Y6" s="26">
         <f t="shared" si="1"/>
-        <v>0.43726041772945234</v>
+        <v>0.47369878587357339</v>
       </c>
       <c r="Z6" s="26">
         <f t="shared" si="1"/>
@@ -1736,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="L7" s="3">
-        <v>141847</v>
+        <v>172391</v>
       </c>
       <c r="M7" s="3">
-        <v>764159</v>
+        <v>794703</v>
       </c>
       <c r="N7" s="3">
-        <v>194993</v>
+        <v>179683</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="9" t="s">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="Q7" s="10">
         <f>ROUNDUP(Q4-Q5,0)</f>
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" ref="R7:AG7" si="2">ROUNDUP(R4-R5,0)</f>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="V7" s="10">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="2"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="Y7" s="10">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z7" s="10">
         <f t="shared" si="2"/>
@@ -1858,15 +1858,15 @@
       </c>
       <c r="L8" s="4">
         <f>SUM(L3:L7)</f>
-        <v>933243.65</v>
+        <v>975075.3</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(M3:M7)</f>
-        <v>4667063.2</v>
+        <v>4708894.8499999996</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>659669.65</v>
+        <v>646188</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="Q8" s="21">
         <f>R8+V8+Z8+AD8</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R8" s="21">
         <f>SUM(S8:U8)</f>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="V8" s="21">
         <f>SUM(W8:Y8)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W8" s="21">
         <v>0</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="Y8" s="21">
         <f>N18</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="21">
         <f>SUM(AA8:AC8)</f>
@@ -1959,15 +1959,15 @@
       </c>
       <c r="L9" s="4" cm="1">
         <f t="array" ref="L9">SUM(SUMIFS(L3:L7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>363054</v>
+        <v>393598</v>
       </c>
       <c r="M9" s="4" cm="1">
         <f t="array" ref="M9">SUM(SUMIFS(M3:M7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>3621853.95</v>
+        <v>3652397.95</v>
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>470382</v>
+        <v>468138</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>1</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="Q10" s="10">
         <f>R10+V10+Z10+AD10</f>
-        <v>55.508980000000001</v>
+        <v>56.508980000000001</v>
       </c>
       <c r="R10" s="10">
         <f>SUM(S10:U10)</f>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="V10" s="10">
         <f>SUM(W10:Y10)</f>
-        <v>42.2</v>
+        <v>43.2</v>
       </c>
       <c r="W10" s="10">
         <v>1.2</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="Y10" s="10">
         <f>L13</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="10">
         <f>SUM(AA10:AC10)</f>
@@ -2122,7 +2122,7 @@
       <c r="AG10" s="11"/>
       <c r="AJ10" s="28">
         <f>(R10+V10)/(R9+V9)</f>
-        <v>0.98551229471815349</v>
+        <v>1.0032664003550822</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="Q11" s="26">
         <f>Q10/Q9</f>
-        <v>0.37005986666666668</v>
+        <v>0.37672653333333334</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" ref="R11:AG11" si="4">R10/R9</f>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="V11" s="26">
         <f t="shared" si="4"/>
-        <v>1.1339513636974341</v>
+        <v>1.1608222490931077</v>
       </c>
       <c r="W11" s="26">
         <f t="shared" si="4"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="Y11" s="26">
         <f t="shared" si="4"/>
-        <v>2.9016277423920736</v>
+        <v>2.9723991507430996</v>
       </c>
       <c r="Z11" s="26">
         <f t="shared" si="4"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="8" t="s">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="Q12" s="10">
         <f>ROUNDUP(Q9-Q10,0)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" ref="R12:AG12" si="9">ROUNDUP(R9-R10,0)</f>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="V12" s="10">
         <f t="shared" si="9"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="9"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="Y12" s="10">
         <f t="shared" si="9"/>
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="Z12" s="10">
         <f t="shared" si="9"/>
@@ -2406,15 +2406,15 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="20" t="s">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="Q13" s="21">
         <f>R13+V13+Z13+AD13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" s="21">
         <f>SUM(S13:U13)</f>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="V13" s="21">
         <f>SUM(W13:Y13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W13" s="21">
         <v>0</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="Y13" s="21">
         <f>N13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="21">
         <f>SUM(AA13:AC13)</f>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="M15" s="4">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="8" t="s">
@@ -2734,15 +2734,15 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="8"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="14" t="s">
@@ -2858,15 +2858,15 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="8"/>
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="8" t="s">
@@ -2982,15 +2982,15 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="8"/>
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="20" t="s">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="Q18" s="21">
         <f>R18+V18+Z18+AD18</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R18" s="21">
         <f>SUM(S18:U18)</f>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="V18" s="21">
         <f>SUM(W18:Y18)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W18" s="21">
         <v>0</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="Y18" s="21">
         <f>N15</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z18" s="21">
         <f>SUM(AA18:AC18)</f>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="Q20" s="10">
         <f>Q15+Q10+Q5</f>
-        <v>463.13477499999999</v>
+        <v>467.13477499999999</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="25"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V20" s="10">
         <f t="shared" si="25"/>
-        <v>245.99430000000001</v>
+        <v>249.99430000000001</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="25"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="25"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="25"/>
@@ -3295,13 +3295,13 @@
         <v>50</v>
       </c>
       <c r="L21" s="1">
-        <v>1129266</v>
+        <v>1915299</v>
       </c>
       <c r="M21" s="1">
-        <v>9296842.3000000007</v>
+        <v>10082875.300000001</v>
       </c>
       <c r="N21" s="1">
-        <v>3899970</v>
+        <v>3253197</v>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="14" t="s">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="Q21" s="26">
         <f>Q20/Q19</f>
-        <v>0.38594564583333335</v>
+        <v>0.38927897916666665</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="V21" s="26">
         <f t="shared" si="26"/>
-        <v>0.82626058041112471</v>
+        <v>0.83969602310896152</v>
       </c>
       <c r="W21" s="26">
         <f t="shared" si="26"/>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="Y21" s="26">
         <f t="shared" si="26"/>
-        <v>0.81387119603680103</v>
+        <v>0.84925690021231404</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
@@ -3417,7 +3417,7 @@
         <v>500166.47</v>
       </c>
       <c r="N22" s="1">
-        <v>29813</v>
+        <v>102773</v>
       </c>
       <c r="O22" s="34"/>
       <c r="P22" s="8" t="s">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="Q22" s="10">
         <f>ROUNDUP(Q19-Q20,0)</f>
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="V22" s="10">
         <f t="shared" si="27"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="27"/>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="27"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="27"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>1987</v>
+        <v>2070</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.28184397163120567</v>
+        <v>0.29361702127659572</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.55799966268463008</v>
+        <v>0.60545250285145835</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.42161690081462405</v>
+        <v>0.54659619641324475</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>5063</v>
+        <v>4980</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>774</v>
+        <v>691</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4176,7 +4176,7 @@
         <v>449750</v>
       </c>
       <c r="N29" s="1">
-        <v>42350</v>
+        <v>458832</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -4352,15 +4352,15 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>1879974.55</v>
+        <v>2666007.5499999998</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>15262163.320000002</v>
+        <v>16048196.320000002</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4558719.3499999996</v>
+        <v>4401388.3499999996</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -4476,15 +4476,15 @@
       </c>
       <c r="L36" s="1">
         <f>ROUNDDOWN(L21/10000,0)</f>
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ref="M36:N36" si="35">ROUNDDOWN(M21/10000,0)</f>
-        <v>929</v>
+        <v>1008</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="35"/>
-        <v>389</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" si="68"/>
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -5100,19 +5100,36 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1526</v>
+        <v>1604</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5129,23 +5146,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P4:AG28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99E812-9DFA-48DC-B18D-348BC273469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54053D0-1B5B-4046-9DD8-41E21BAFE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K9" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1626,7 +1626,7 @@
         <v>484372</v>
       </c>
       <c r="N6" s="3">
-        <v>148125</v>
+        <v>153416</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="25" t="s">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>646188</v>
+        <v>651479</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
@@ -2120,10 +2120,7 @@
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="11"/>
-      <c r="AJ10" s="28">
-        <f>(R10+V10)/(R9+V9)</f>
-        <v>1.0032664003550822</v>
-      </c>
+      <c r="AJ10" s="28"/>
     </row>
     <row r="11" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2640,7 +2637,7 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="8" t="s">
@@ -2866,7 +2863,7 @@
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="8" t="s">
@@ -2998,7 +2995,7 @@
       </c>
       <c r="Q18" s="21">
         <f>R18+V18+Z18+AD18</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R18" s="21">
         <f>SUM(S18:U18)</f>
@@ -3015,7 +3012,7 @@
       </c>
       <c r="V18" s="21">
         <f>SUM(W18:Y18)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W18" s="21">
         <v>0</v>
@@ -3025,7 +3022,7 @@
       </c>
       <c r="Y18" s="21">
         <f>N15</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z18" s="21">
         <f>SUM(AA18:AC18)</f>
@@ -3411,13 +3408,13 @@
         <v>51</v>
       </c>
       <c r="L22" s="1">
-        <v>49510</v>
+        <v>152283</v>
       </c>
       <c r="M22" s="1">
-        <v>500166.47</v>
+        <v>602939.47</v>
       </c>
       <c r="N22" s="1">
-        <v>102773</v>
+        <v>0</v>
       </c>
       <c r="O22" s="34"/>
       <c r="P22" s="8" t="s">
@@ -3541,7 +3538,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3561,7 +3558,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3573,7 +3570,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3756,7 +3753,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>2070</v>
+        <v>2080</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3776,7 +3773,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3788,7 +3785,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3854,7 +3851,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.29361702127659572</v>
+        <v>0.29503546099290778</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3874,7 +3871,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.60545250285145835</v>
+        <v>0.61116971251011232</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3886,7 +3883,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.54659619641324475</v>
+        <v>0.56165394287090997</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3962,7 +3959,7 @@
         <v>791335.8</v>
       </c>
       <c r="N27" s="1">
-        <v>180416</v>
+        <v>185316</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="8" t="s">
@@ -3970,7 +3967,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>4980</v>
+        <v>4970</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3990,7 +3987,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -4002,7 +3999,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4086,7 +4083,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4106,7 +4103,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4118,7 +4115,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4352,15 +4349,15 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>2666007.5499999998</v>
+        <v>2768780.55</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>16048196.320000002</v>
+        <v>16150969.320000002</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4401388.3499999996</v>
+        <v>4303515.3499999996</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -4528,15 +4525,15 @@
       </c>
       <c r="L37" s="1">
         <f t="shared" ref="L37:N37" si="40">ROUNDDOWN(L22/10000,0)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -5100,36 +5097,19 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1604</v>
+        <v>1615</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5146,6 +5126,23 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P4:AG28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54053D0-1B5B-4046-9DD8-41E21BAFE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FDC5F6-ACCD-4F59-BC61-2B87B9DBC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22490" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -1098,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K9" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1319,7 @@
         <v>2549790.9500000002</v>
       </c>
       <c r="N3" s="3">
-        <v>288455</v>
+        <v>289016</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42"/>
@@ -1620,13 +1620,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="3">
-        <v>159877</v>
+        <v>284283</v>
       </c>
       <c r="M6" s="3">
-        <v>484372</v>
+        <v>608778</v>
       </c>
       <c r="N6" s="3">
-        <v>153416</v>
+        <v>29010</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="25" t="s">
@@ -1858,15 +1858,15 @@
       </c>
       <c r="L8" s="4">
         <f>SUM(L3:L7)</f>
-        <v>975075.3</v>
+        <v>1099481.3</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(M3:M7)</f>
-        <v>4708894.8499999996</v>
+        <v>4833300.8499999996</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>651479</v>
+        <v>527634</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>468138</v>
+        <v>468699</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>1</v>
@@ -2629,15 +2629,15 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="8" t="s">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="Q15" s="10">
         <f>R15+V15+Z15+AD15</f>
-        <v>46.546700000000001</v>
+        <v>59.546700000000001</v>
       </c>
       <c r="R15" s="10">
         <f>SUM(S15:U15)</f>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="V15" s="10">
         <f>SUM(W15:Y15)</f>
-        <v>25.3443</v>
+        <v>38.344300000000004</v>
       </c>
       <c r="W15" s="10">
         <v>4.3442999999999996</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="Y15" s="10">
         <f>L15</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Z15" s="10">
         <f>SUM(AA15:AC15)</f>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="Q16" s="26">
         <f>Q15/Q14</f>
-        <v>0.26446988636363639</v>
+        <v>0.33833352272727274</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" ref="R16:AG16" si="19">R15/R14</f>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="V16" s="26">
         <f t="shared" si="19"/>
-        <v>0.58041799494338797</v>
+        <v>0.87813519108863747</v>
       </c>
       <c r="W16" s="26">
         <f t="shared" si="19"/>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="Y16" s="26">
         <f t="shared" si="19"/>
-        <v>0.90474811812391431</v>
+        <v>1.6888631538313066</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="19"/>
@@ -2855,15 +2855,15 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="8"/>
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="8" t="s">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="Q17" s="10">
         <f>ROUNDUP(Q14-Q15,0)</f>
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" ref="R17:AG17" si="22">ROUNDUP(R14-R15,0)</f>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="V17" s="10">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="22"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="Z17" s="10">
         <f t="shared" si="22"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="Q18" s="21">
         <f>R18+V18+Z18+AD18</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="R18" s="21">
         <f>SUM(S18:U18)</f>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="V18" s="21">
         <f>SUM(W18:Y18)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="W18" s="21">
         <v>0</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="Y18" s="21">
         <f>N15</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="21">
         <f>SUM(AA18:AC18)</f>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="Q20" s="10">
         <f>Q15+Q10+Q5</f>
-        <v>467.13477499999999</v>
+        <v>480.13477499999999</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="25"/>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="V20" s="10">
         <f t="shared" si="25"/>
-        <v>249.99430000000001</v>
+        <v>262.99430000000001</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="25"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="25"/>
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="25"/>
@@ -3298,7 +3298,7 @@
         <v>10082875.300000001</v>
       </c>
       <c r="N21" s="1">
-        <v>3253197</v>
+        <v>3284734</v>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="14" t="s">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="Q21" s="26">
         <f>Q20/Q19</f>
-        <v>0.38927897916666665</v>
+        <v>0.40011231250000001</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="V21" s="26">
         <f t="shared" si="26"/>
-        <v>0.83969602310896152</v>
+        <v>0.88336121187693151</v>
       </c>
       <c r="W21" s="26">
         <f t="shared" si="26"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="Y21" s="26">
         <f t="shared" si="26"/>
-        <v>0.84925690021231404</v>
+        <v>0.9642604387827316</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="Q22" s="10">
         <f>ROUNDUP(Q19-Q20,0)</f>
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="V22" s="10">
         <f t="shared" si="27"/>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="27"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="27"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="27"/>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3739,13 +3739,13 @@
         <v>54</v>
       </c>
       <c r="L25" s="1">
-        <v>159034.04999999999</v>
+        <v>203001.75</v>
       </c>
       <c r="M25" s="1">
-        <v>838780.65</v>
+        <v>882748.35</v>
       </c>
       <c r="N25" s="1">
-        <v>103201.35</v>
+        <v>59233.65</v>
       </c>
       <c r="O25" s="34"/>
       <c r="P25" s="8" t="s">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>2080</v>
+        <v>2097</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>1069</v>
+        <v>1086</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.29503546099290778</v>
+        <v>0.29744680851063832</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.61116971251011232</v>
+        <v>0.62088896892982415</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.56165394287090997</v>
+        <v>0.58725211184894066</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3959,7 +3959,7 @@
         <v>791335.8</v>
       </c>
       <c r="N27" s="1">
-        <v>185316</v>
+        <v>203239</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="8" t="s">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>4970</v>
+        <v>4953</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4349,15 +4349,15 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>2768780.55</v>
+        <v>2812748.25</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>16150969.320000002</v>
+        <v>16194937.020000001</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4303515.3499999996</v>
+        <v>4309007.6500000004</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" si="35"/>
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4681,15 +4681,15 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" ref="L40:N40" si="52">ROUNDDOWN(L25/10000,0)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="52"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="52"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="N42" s="1">
         <f t="shared" si="60"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -5097,11 +5097,11 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
@@ -5110,6 +5110,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5126,23 +5143,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P4:AG28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FDC5F6-ACCD-4F59-BC61-2B87B9DBC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC90DB-F370-45F7-8735-5521BB9EA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22490" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1313,13 +1313,13 @@
         <v>45</v>
       </c>
       <c r="L3" s="3">
-        <v>187984</v>
+        <v>452325</v>
       </c>
       <c r="M3" s="3">
-        <v>2549790.9500000002</v>
+        <v>2814131.95</v>
       </c>
       <c r="N3" s="3">
-        <v>289016</v>
+        <v>29535</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42"/>
@@ -1408,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>421600.3</v>
+        <v>451525.3</v>
       </c>
       <c r="M4" s="3">
-        <v>572124.9</v>
+        <v>602049.9</v>
       </c>
       <c r="N4" s="3">
-        <v>29925</v>
+        <v>0</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>33</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Q5" s="10">
         <f>R5+V5+Z5+AD5</f>
-        <v>364.079095</v>
+        <v>400.079095</v>
       </c>
       <c r="R5" s="10">
         <f>SUM(S5:U5)</f>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="V5" s="10">
         <f>SUM(W5:Y5)</f>
-        <v>181.45</v>
+        <v>217.45</v>
       </c>
       <c r="W5" s="10">
         <f>28.21+10.94+8.3</f>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="Y5" s="10">
         <f>L18</f>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="Z5" s="10">
         <f>SUM(AA5:AC5)</f>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="Q6" s="26">
         <f>Q5/Q4</f>
-        <v>0.41656647025171623</v>
+        <v>0.45775640160183068</v>
       </c>
       <c r="R6" s="26">
         <f t="shared" ref="R6:AG6" si="1">R5/R4</f>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="V6" s="26">
         <f t="shared" si="1"/>
-        <v>0.8367944202022326</v>
+        <v>1.002815908916922</v>
       </c>
       <c r="W6" s="26">
         <f t="shared" si="1"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="Y6" s="26">
         <f t="shared" si="1"/>
-        <v>0.47369878587357339</v>
+        <v>0.91095920360302574</v>
       </c>
       <c r="Z6" s="26">
         <f t="shared" si="1"/>
@@ -1736,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="L7" s="3">
-        <v>172391</v>
+        <v>273032</v>
       </c>
       <c r="M7" s="3">
-        <v>794703</v>
+        <v>895344</v>
       </c>
       <c r="N7" s="3">
-        <v>179683</v>
+        <v>79042</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="9" t="s">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="Q7" s="10">
         <f>ROUNDUP(Q4-Q5,0)</f>
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" ref="R7:AG7" si="2">ROUNDUP(R4-R5,0)</f>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="V7" s="10">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="2"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="Y7" s="10">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="Z7" s="10">
         <f t="shared" si="2"/>
@@ -1858,15 +1858,15 @@
       </c>
       <c r="L8" s="4">
         <f>SUM(L3:L7)</f>
-        <v>1099481.3</v>
+        <v>1494388.3</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(M3:M7)</f>
-        <v>4833300.8499999996</v>
+        <v>5228207.8499999996</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>527634</v>
+        <v>137587</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="Q8" s="21">
         <f>R8+V8+Z8+AD8</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="R8" s="21">
         <f>SUM(S8:U8)</f>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="V8" s="21">
         <f>SUM(W8:Y8)</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="W8" s="21">
         <v>0</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="Y8" s="21">
         <f>N18</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="Z8" s="21">
         <f>SUM(AA8:AC8)</f>
@@ -1959,15 +1959,15 @@
       </c>
       <c r="L9" s="4" cm="1">
         <f t="array" ref="L9">SUM(SUMIFS(L3:L7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>393598</v>
+        <v>758580</v>
       </c>
       <c r="M9" s="4" cm="1">
         <f t="array" ref="M9">SUM(SUMIFS(M3:M7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>3652397.95</v>
+        <v>4017379.95</v>
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>468699</v>
+        <v>108577</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>1</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="Q10" s="10">
         <f>R10+V10+Z10+AD10</f>
-        <v>56.508980000000001</v>
+        <v>59.508980000000001</v>
       </c>
       <c r="R10" s="10">
         <f>SUM(S10:U10)</f>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="V10" s="10">
         <f>SUM(W10:Y10)</f>
-        <v>43.2</v>
+        <v>46.2</v>
       </c>
       <c r="W10" s="10">
         <v>1.2</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="Y10" s="10">
         <f>L13</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z10" s="10">
         <f>SUM(AA10:AC10)</f>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Q11" s="26">
         <f>Q10/Q9</f>
-        <v>0.37672653333333334</v>
+        <v>0.39672653333333335</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" ref="R11:AG11" si="4">R10/R9</f>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="V11" s="26">
         <f t="shared" si="4"/>
-        <v>1.1608222490931077</v>
+        <v>1.2414349052801292</v>
       </c>
       <c r="W11" s="26">
         <f t="shared" si="4"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="Y11" s="26">
         <f t="shared" si="4"/>
-        <v>2.9723991507430996</v>
+        <v>3.1847133757961781</v>
       </c>
       <c r="Z11" s="26">
         <f t="shared" si="4"/>
@@ -2279,15 +2279,15 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" ref="L12:N18" si="8">ROUNDDOWN(L3/10000,0)</f>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="8"/>
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="8" t="s">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="Q12" s="10">
         <f>ROUNDUP(Q9-Q10,0)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" ref="R12:AG12" si="9">ROUNDUP(R9-R10,0)</f>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="V12" s="10">
         <f t="shared" si="9"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="9"/>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="Y12" s="10">
         <f t="shared" si="9"/>
-        <v>-28</v>
+        <v>-31</v>
       </c>
       <c r="Z12" s="10">
         <f t="shared" si="9"/>
@@ -2403,15 +2403,15 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="8"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="20" t="s">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="Q13" s="21">
         <f>R13+V13+Z13+AD13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="21">
         <f>SUM(S13:U13)</f>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="V13" s="21">
         <f>SUM(W13:Y13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="21">
         <v>0</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="Y13" s="21">
         <f>N13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="21">
         <f>SUM(AA13:AC13)</f>
@@ -2731,15 +2731,15 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="8"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="14" t="s">
@@ -2855,15 +2855,15 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="8"/>
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="8" t="s">
@@ -2979,15 +2979,15 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="8"/>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="8"/>
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="20" t="s">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="Q20" s="10">
         <f>Q15+Q10+Q5</f>
-        <v>480.13477499999999</v>
+        <v>519.13477499999999</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="25"/>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="V20" s="10">
         <f t="shared" si="25"/>
-        <v>262.99430000000001</v>
+        <v>301.99430000000001</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="25"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="25"/>
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="25"/>
@@ -3292,13 +3292,13 @@
         <v>50</v>
       </c>
       <c r="L21" s="1">
-        <v>1915299</v>
+        <v>2890200.45</v>
       </c>
       <c r="M21" s="1">
-        <v>10082875.300000001</v>
+        <v>11057776.75</v>
       </c>
       <c r="N21" s="1">
-        <v>3284734</v>
+        <v>2599331.5499999998</v>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="14" t="s">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="Q21" s="26">
         <f>Q20/Q19</f>
-        <v>0.40011231250000001</v>
+        <v>0.43261231249999998</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="V21" s="26">
         <f t="shared" si="26"/>
-        <v>0.88336121187693151</v>
+        <v>1.0143567781808411</v>
       </c>
       <c r="W21" s="26">
         <f t="shared" si="26"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="Y21" s="26">
         <f t="shared" si="26"/>
-        <v>0.9642604387827316</v>
+        <v>1.3092710544939843</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
@@ -3408,10 +3408,10 @@
         <v>51</v>
       </c>
       <c r="L22" s="1">
-        <v>152283</v>
+        <v>271253</v>
       </c>
       <c r="M22" s="1">
-        <v>602939.47</v>
+        <v>721909.47</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="Q22" s="10">
         <f>ROUNDUP(Q19-Q20,0)</f>
-        <v>720</v>
+        <v>681</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="V22" s="10">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>-5</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="27"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="27"/>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3739,13 +3739,13 @@
         <v>54</v>
       </c>
       <c r="L25" s="1">
-        <v>203001.75</v>
+        <v>218235.75</v>
       </c>
       <c r="M25" s="1">
-        <v>882748.35</v>
+        <v>897982.35</v>
       </c>
       <c r="N25" s="1">
-        <v>59233.65</v>
+        <v>436119.65</v>
       </c>
       <c r="O25" s="34"/>
       <c r="P25" s="8" t="s">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>2097</v>
+        <v>2268</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>1086</v>
+        <v>1257</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>390</v>
+        <v>561</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.29744680851063832</v>
+        <v>0.32170212765957445</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.62088896892982415</v>
+        <v>0.71865325409280745</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.58725211184894066</v>
+        <v>0.84473957627501461</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3959,7 +3959,7 @@
         <v>791335.8</v>
       </c>
       <c r="N27" s="1">
-        <v>203239</v>
+        <v>208880</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="8" t="s">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>4953</v>
+        <v>4782</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>664</v>
+        <v>493</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4173,7 +4173,7 @@
         <v>449750</v>
       </c>
       <c r="N29" s="1">
-        <v>458832</v>
+        <v>476738</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -4299,13 +4299,13 @@
         <v>61</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>207665</v>
       </c>
       <c r="M32" s="1">
-        <v>179381</v>
+        <v>387046</v>
       </c>
       <c r="N32" s="1">
-        <v>93140</v>
+        <v>105772</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -4349,15 +4349,15 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>2812748.25</v>
+        <v>4129518.7</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>16194937.020000001</v>
+        <v>17511707.470000003</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4309007.6500000004</v>
+        <v>4036670.1999999997</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -4473,15 +4473,15 @@
       </c>
       <c r="L36" s="1">
         <f>ROUNDDOWN(L21/10000,0)</f>
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ref="M36:N36" si="35">ROUNDDOWN(M21/10000,0)</f>
-        <v>1008</v>
+        <v>1105</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="35"/>
-        <v>328</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="L37" s="1">
         <f t="shared" ref="L37:N37" si="40">ROUNDDOWN(L22/10000,0)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="40"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="40"/>
@@ -4681,15 +4681,15 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" ref="L40:N40" si="52">ROUNDDOWN(L25/10000,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="52"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="52"/>
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" si="68"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -5045,15 +5045,15 @@
       </c>
       <c r="L47" s="1">
         <f t="shared" ref="L47:N47" si="80">ROUNDDOWN(L32/10000,0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="80"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="80"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -5097,15 +5097,15 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>281</v>
+        <v>412</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1619</v>
+        <v>1751</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC90DB-F370-45F7-8735-5521BB9EA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C754D-3672-4808-B04A-272EBDB2D3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
         <v>2814131.95</v>
       </c>
       <c r="N3" s="3">
-        <v>29535</v>
+        <v>31646</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Q5" s="10">
         <f>R5+V5+Z5+AD5</f>
-        <v>400.079095</v>
+        <v>407.079095</v>
       </c>
       <c r="R5" s="10">
         <f>SUM(S5:U5)</f>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="V5" s="10">
         <f>SUM(W5:Y5)</f>
-        <v>217.45</v>
+        <v>224.45</v>
       </c>
       <c r="W5" s="10">
         <f>28.21+10.94+8.3</f>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="Y5" s="10">
         <f>L18</f>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Z5" s="10">
         <f>SUM(AA5:AC5)</f>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="Q6" s="26">
         <f>Q5/Q4</f>
-        <v>0.45775640160183068</v>
+        <v>0.46576555491990845</v>
       </c>
       <c r="R6" s="26">
         <f t="shared" ref="R6:AG6" si="1">R5/R4</f>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="V6" s="26">
         <f t="shared" si="1"/>
-        <v>1.002815908916922</v>
+        <v>1.0350978650558893</v>
       </c>
       <c r="W6" s="26">
         <f t="shared" si="1"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="Y6" s="26">
         <f t="shared" si="1"/>
-        <v>0.91095920360302574</v>
+        <v>0.99598206260597477</v>
       </c>
       <c r="Z6" s="26">
         <f t="shared" si="1"/>
@@ -1736,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="L7" s="3">
-        <v>273032</v>
+        <v>335072</v>
       </c>
       <c r="M7" s="3">
-        <v>895344</v>
+        <v>957384</v>
       </c>
       <c r="N7" s="3">
-        <v>79042</v>
+        <v>17002</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="9" t="s">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="Q7" s="10">
         <f>ROUNDUP(Q4-Q5,0)</f>
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" ref="R7:AG7" si="2">ROUNDUP(R4-R5,0)</f>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="V7" s="10">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="2"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="Y7" s="10">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="10">
         <f t="shared" si="2"/>
@@ -1858,15 +1858,15 @@
       </c>
       <c r="L8" s="4">
         <f>SUM(L3:L7)</f>
-        <v>1494388.3</v>
+        <v>1556428.3</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(M3:M7)</f>
-        <v>5228207.8499999996</v>
+        <v>5290247.8499999996</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>137587</v>
+        <v>77658</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="Q8" s="21">
         <f>R8+V8+Z8+AD8</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R8" s="21">
         <f>SUM(S8:U8)</f>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="V8" s="21">
         <f>SUM(W8:Y8)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W8" s="21">
         <v>0</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="Y8" s="21">
         <f>N18</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="21">
         <f>SUM(AA8:AC8)</f>
@@ -1959,15 +1959,15 @@
       </c>
       <c r="L9" s="4" cm="1">
         <f t="array" ref="L9">SUM(SUMIFS(L3:L7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>758580</v>
+        <v>820620</v>
       </c>
       <c r="M9" s="4" cm="1">
         <f t="array" ref="M9">SUM(SUMIFS(M3:M7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>4017379.95</v>
+        <v>4079419.95</v>
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>108577</v>
+        <v>48648</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>1</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="8" t="s">
@@ -2731,15 +2731,15 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="8"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="14" t="s">
@@ -2855,15 +2855,15 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="8"/>
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="8"/>
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="8" t="s">
@@ -2979,15 +2979,15 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="8"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="8"/>
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="20" t="s">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="Q20" s="10">
         <f>Q15+Q10+Q5</f>
-        <v>519.13477499999999</v>
+        <v>526.13477499999999</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="25"/>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="V20" s="10">
         <f t="shared" si="25"/>
-        <v>301.99430000000001</v>
+        <v>308.99430000000001</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="25"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="Y20" s="10">
         <f t="shared" si="25"/>
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="25"/>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="Q21" s="26">
         <f>Q20/Q19</f>
-        <v>0.43261231249999998</v>
+        <v>0.43844564583333334</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="V21" s="26">
         <f t="shared" si="26"/>
-        <v>1.0143567781808411</v>
+        <v>1.0378688029020557</v>
       </c>
       <c r="W21" s="26">
         <f t="shared" si="26"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="Y21" s="26">
         <f t="shared" si="26"/>
-        <v>1.3092710544939843</v>
+        <v>1.371196036801132</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="Q22" s="10">
         <f>ROUNDUP(Q19-Q20,0)</f>
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="V22" s="10">
         <f t="shared" si="27"/>
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="W22" s="10">
         <f t="shared" si="27"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="27"/>
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="27"/>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.32170212765957445</v>
+        <v>0.32255319148936168</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.71865325409280745</v>
+        <v>0.72208357988799987</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.84473957627501461</v>
+        <v>0.85377422414961379</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>4782</v>
+        <v>4776</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C754D-3672-4808-B04A-272EBDB2D3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC0DF7-82E7-4B03-A3D5-82C6880ACDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22490" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1313,13 +1313,13 @@
         <v>45</v>
       </c>
       <c r="L3" s="3">
-        <v>452325</v>
+        <v>454436</v>
       </c>
       <c r="M3" s="3">
-        <v>2814131.95</v>
+        <v>2816242.95</v>
       </c>
       <c r="N3" s="3">
-        <v>31646</v>
+        <v>29535</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42"/>
@@ -1742,7 +1742,7 @@
         <v>957384</v>
       </c>
       <c r="N7" s="3">
-        <v>17002</v>
+        <v>21250</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="9" t="s">
@@ -1858,15 +1858,15 @@
       </c>
       <c r="L8" s="4">
         <f>SUM(L3:L7)</f>
-        <v>1556428.3</v>
+        <v>1558539.3</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(M3:M7)</f>
-        <v>5290247.8499999996</v>
+        <v>5292358.8499999996</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(N3:N7)</f>
-        <v>77658</v>
+        <v>79795</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="20" t="s">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="Q8" s="21">
         <f>R8+V8+Z8+AD8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" s="21">
         <f>SUM(S8:U8)</f>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="V8" s="21">
         <f>SUM(W8:Y8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W8" s="21">
         <v>0</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="Y8" s="21">
         <f>N18</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="21">
         <f>SUM(AA8:AC8)</f>
@@ -1959,15 +1959,15 @@
       </c>
       <c r="L9" s="4" cm="1">
         <f t="array" ref="L9">SUM(SUMIFS(L3:L7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>820620</v>
+        <v>822731</v>
       </c>
       <c r="M9" s="4" cm="1">
         <f t="array" ref="M9">SUM(SUMIFS(M3:M7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>4079419.95</v>
+        <v>4081530.95</v>
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>48648</v>
+        <v>50785</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>1</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="8" t="s">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="14" t="s">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="M18" s="4">
         <f t="shared" si="8"/>
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="20" t="s">
@@ -3292,13 +3292,13 @@
         <v>50</v>
       </c>
       <c r="L21" s="1">
-        <v>2890200.45</v>
+        <v>4054317.76</v>
       </c>
       <c r="M21" s="1">
-        <v>11057776.75</v>
+        <v>12221894.060000001</v>
       </c>
       <c r="N21" s="1">
-        <v>2599331.5499999998</v>
+        <v>1474426.24</v>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="14" t="s">
@@ -3530,7 +3530,7 @@
         <v>63084.4</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>2785</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="20" t="s">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="Q23" s="21">
         <f>Q8+Q13+Q18</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R23" s="21">
         <f>SUM(S23:U23)</f>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="V23" s="21">
         <f>SUM(W23:Y23)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W23" s="21">
         <f>W8+W13+W18</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="21">
         <f>SUM(AA23:AC23)</f>
@@ -3739,13 +3739,13 @@
         <v>54</v>
       </c>
       <c r="L25" s="1">
-        <v>218235.75</v>
+        <v>570052.75</v>
       </c>
       <c r="M25" s="1">
-        <v>897982.35</v>
+        <v>1249799.3500000001</v>
       </c>
       <c r="N25" s="1">
-        <v>436119.65</v>
+        <v>84302.65</v>
       </c>
       <c r="O25" s="34"/>
       <c r="P25" s="8" t="s">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="Q25" s="10">
         <f>R25+V25+Z25+AD25</f>
-        <v>2274</v>
+        <v>2466</v>
       </c>
       <c r="R25" s="10">
         <f>SUM(S25:U25)</f>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="V25" s="10">
         <f>SUM(W25:Y25)</f>
-        <v>1263</v>
+        <v>1455</v>
       </c>
       <c r="W25" s="10">
         <f>H48+H17</f>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="Y25" s="10">
         <f>L48+L17</f>
-        <v>567</v>
+        <v>759</v>
       </c>
       <c r="Z25" s="10">
         <f>SUM(AA25:AC25)</f>
@@ -3837,13 +3837,13 @@
         <v>55</v>
       </c>
       <c r="L26" s="1">
-        <v>139389</v>
+        <v>220855</v>
       </c>
       <c r="M26" s="1">
-        <v>987444.5</v>
+        <v>1068910.5</v>
       </c>
       <c r="N26" s="1">
-        <v>141336</v>
+        <v>65470</v>
       </c>
       <c r="O26" s="34"/>
       <c r="P26" s="14" t="s">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="Q26" s="26">
         <f>Q25/Q24</f>
-        <v>0.32255319148936168</v>
+        <v>0.34978723404255319</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="V26" s="26">
         <f t="shared" si="31"/>
-        <v>0.72208357988799987</v>
+        <v>0.83185400533415665</v>
       </c>
       <c r="W26" s="26">
         <f t="shared" si="31"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="31"/>
-        <v>0.85377422414961379</v>
+        <v>1.1428829561367846</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="31"/>
@@ -3953,13 +3953,13 @@
         <v>56</v>
       </c>
       <c r="L27" s="1">
-        <v>113856</v>
+        <v>204073</v>
       </c>
       <c r="M27" s="1">
-        <v>791335.8</v>
+        <v>881552.8</v>
       </c>
       <c r="N27" s="1">
-        <v>208880</v>
+        <v>118663</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="8" t="s">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="Q27" s="10">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>4776</v>
+        <v>4584</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="32"/>
-        <v>487</v>
+        <v>295</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" si="32"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="32"/>
-        <v>98</v>
+        <v>-95</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" si="32"/>
@@ -4069,13 +4069,13 @@
         <v>57</v>
       </c>
       <c r="L28" s="1">
-        <v>128840</v>
+        <v>139396</v>
       </c>
       <c r="M28" s="1">
-        <v>1119713</v>
+        <v>1130269</v>
       </c>
       <c r="N28" s="1">
-        <v>65565</v>
+        <v>55009</v>
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="20" t="s">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="Q28" s="21">
         <f>R28+V28+Z28+AD28</f>
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="R28" s="21">
         <f>SUM(S28:U28)</f>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="V28" s="21">
         <f>SUM(W28:Y28)</f>
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="W28" s="21">
         <f>W13+W18+W23</f>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="Y28" s="21">
         <f>N48+N17</f>
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="Z28" s="21">
         <f>SUM(AA28:AC28)</f>
@@ -4167,13 +4167,13 @@
         <v>58</v>
       </c>
       <c r="L29" s="1">
-        <v>7154</v>
+        <v>140354</v>
       </c>
       <c r="M29" s="1">
-        <v>449750</v>
+        <v>582950</v>
       </c>
       <c r="N29" s="1">
-        <v>476738</v>
+        <v>343538</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -4217,7 +4217,7 @@
         <v>605799.19999999995</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>119915</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -4255,13 +4255,13 @@
         <v>60</v>
       </c>
       <c r="L31" s="1">
-        <v>42792</v>
+        <v>123239</v>
       </c>
       <c r="M31" s="1">
-        <v>295853</v>
+        <v>376300</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
+        <v>14453</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
@@ -4349,15 +4349,15 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>4129518.7</v>
+        <v>6041339.0099999998</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>17511707.470000003</v>
+        <v>19423527.780000001</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>4036670.1999999997</v>
+        <v>2387261.8899999997</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -4473,15 +4473,15 @@
       </c>
       <c r="L36" s="1">
         <f>ROUNDDOWN(L21/10000,0)</f>
-        <v>289</v>
+        <v>405</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ref="M36:N36" si="35">ROUNDDOWN(M21/10000,0)</f>
-        <v>1105</v>
+        <v>1222</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="35"/>
-        <v>259</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4681,15 +4681,15 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" ref="L40:N40" si="52">ROUNDDOWN(L25/10000,0)</f>
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="52"/>
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="52"/>
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4733,15 +4733,15 @@
       </c>
       <c r="L41" s="1">
         <f t="shared" ref="L41:N41" si="56">ROUNDDOWN(L26/10000,0)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="56"/>
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="56"/>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -4785,15 +4785,15 @@
       </c>
       <c r="L42" s="1">
         <f t="shared" ref="L42:N42" si="60">ROUNDDOWN(L27/10000,0)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="60"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="60"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -4837,15 +4837,15 @@
       </c>
       <c r="L43" s="1">
         <f t="shared" ref="L43:N43" si="64">ROUNDDOWN(L28/10000,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="64"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="64"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -4889,15 +4889,15 @@
       </c>
       <c r="L44" s="1">
         <f t="shared" ref="L44:N44" si="68">ROUNDDOWN(L29/10000,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="68"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="68"/>
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="N45" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -4993,15 +4993,15 @@
       </c>
       <c r="L46" s="1">
         <f t="shared" ref="L46:N46" si="76">ROUNDDOWN(L31/10000,0)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="76"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -5097,36 +5097,19 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>412</v>
+        <v>604</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="84"/>
-        <v>1751</v>
+        <v>1942</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="84"/>
-        <v>403</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5143,6 +5126,23 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P4:AG28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC0DF7-82E7-4B03-A3D5-82C6880ACDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DCC61-E3BF-4F14-BD0E-568CB69B4312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22490" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3650" yWindow="500" windowWidth="20190" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="73">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,15 +304,24 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭湖7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -435,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -485,19 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dashDot">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashDot">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
@@ -532,19 +517,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashDot">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,6 +597,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashDot">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="dashDot">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="dashDot">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -632,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,70 +661,73 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -730,13 +742,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,23 +760,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1096,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1107,77 +1128,87 @@
     <col min="1" max="8" width="8.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.58203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.25" style="1" customWidth="1"/>
-    <col min="19" max="21" width="7.08203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.08203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.25" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.9140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.08203125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="8.25" style="1" customWidth="1"/>
-    <col min="31" max="31" width="7.08203125" style="1" customWidth="1"/>
-    <col min="32" max="33" width="8.25" style="1" customWidth="1"/>
-    <col min="34" max="35" width="8.6640625" style="1"/>
-    <col min="36" max="36" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.58203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.25" style="1" customWidth="1"/>
+    <col min="23" max="25" width="7.08203125" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="7.08203125" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="8.25" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.9140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.08203125" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="8.25" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="7.08203125" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="37" width="8.25" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="8.6640625" style="1"/>
+    <col min="40" max="40" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:40" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="36" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
       <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="39"/>
     </row>
-    <row r="2" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,65 +1251,77 @@
       <c r="N2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="41" t="s">
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="U2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="V2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="Y2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="Z2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="AA2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="AB2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AC2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AD2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AE2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AF2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AG2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AH2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AI2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AK2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1318,62 +1361,70 @@
       <c r="M3" s="3">
         <v>2816242.95</v>
       </c>
-      <c r="N3" s="3">
-        <v>29535</v>
-      </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="24">
+      <c r="N3" s="3"/>
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <v>2816242.95</v>
+      </c>
+      <c r="R3" s="3">
+        <v>210149</v>
+      </c>
+      <c r="S3" s="36"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="23">
         <v>0.12740000000000001</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="W3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="X3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="15">
+      <c r="Y3" s="14">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="V3" s="24">
+      <c r="Z3" s="23">
         <v>0.24809999999999999</v>
       </c>
-      <c r="W3" s="15">
+      <c r="AA3" s="14">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="AB3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="AC3" s="14">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="AD3" s="23">
         <v>0.28689999999999999</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AE3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AF3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AG3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AH3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AI3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AJ3" s="14">
         <v>0.1021</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AK3" s="15">
         <v>0.1482</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1413,84 +1464,92 @@
       <c r="M4" s="3">
         <v>602049.9</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
+        <v>602049.9</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="T4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="U4" s="17">
         <v>874</v>
       </c>
-      <c r="R4" s="18">
-        <f>874*R3</f>
+      <c r="V4" s="17">
+        <f>874*V3</f>
         <v>111.34760000000001</v>
       </c>
-      <c r="S4" s="18">
-        <f t="shared" ref="S4:AG4" si="0">874*S3</f>
+      <c r="W4" s="17">
+        <f t="shared" ref="W4:AK4" si="0">874*W3</f>
         <v>6.2054</v>
       </c>
-      <c r="T4" s="18">
+      <c r="X4" s="17">
         <f t="shared" si="0"/>
         <v>33.736400000000003</v>
       </c>
-      <c r="U4" s="18">
+      <c r="Y4" s="17">
         <f t="shared" si="0"/>
         <v>71.405799999999999</v>
       </c>
-      <c r="V4" s="18">
+      <c r="Z4" s="17">
         <f t="shared" si="0"/>
         <v>216.83939999999998</v>
       </c>
-      <c r="W4" s="18">
+      <c r="AA4" s="17">
         <f t="shared" si="0"/>
         <v>62.490999999999993</v>
       </c>
-      <c r="X4" s="18">
+      <c r="AB4" s="17">
         <f t="shared" si="0"/>
         <v>72.017600000000002</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="AC4" s="17">
         <f t="shared" si="0"/>
         <v>82.330800000000011</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="AD4" s="17">
         <f t="shared" si="0"/>
         <v>250.75059999999999</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AE4" s="17">
         <f t="shared" si="0"/>
         <v>73.416000000000011</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AF4" s="17">
         <f t="shared" si="0"/>
         <v>74.901799999999994</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AG4" s="17">
         <f t="shared" si="0"/>
         <v>102.4328</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AH4" s="17">
         <f t="shared" si="0"/>
         <v>295.06240000000003</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AI4" s="17">
         <f t="shared" si="0"/>
         <v>76.300200000000004</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AJ4" s="17">
         <f t="shared" si="0"/>
         <v>89.235399999999998</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AK4" s="18">
         <f t="shared" si="0"/>
         <v>129.52680000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1530,62 +1589,73 @@
       <c r="M5" s="3">
         <v>307904</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="8" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
+        <v>307904</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="35"/>
+      <c r="T5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="10">
-        <f>R5+V5+Z5+AD5</f>
-        <v>407.079095</v>
-      </c>
-      <c r="R5" s="10">
-        <f>SUM(S5:U5)</f>
+      <c r="U5" s="9">
+        <f>V5+Z5+AD5+AH5</f>
+        <v>407.34909499999998</v>
+      </c>
+      <c r="V5" s="9">
+        <f>SUM(W5:Y5)</f>
         <v>182.62909500000001</v>
       </c>
-      <c r="S5" s="10">
+      <c r="W5" s="9">
         <v>4.9847999999999999</v>
       </c>
-      <c r="T5" s="10">
+      <c r="X5" s="9">
         <v>41.869295000000001</v>
       </c>
-      <c r="U5" s="10">
+      <c r="Y5" s="9">
         <v>135.77500000000001</v>
       </c>
-      <c r="V5" s="10">
-        <f>SUM(W5:Y5)</f>
-        <v>224.45</v>
-      </c>
-      <c r="W5" s="10">
+      <c r="Z5" s="9">
+        <f>SUM(AA5:AC5)</f>
+        <v>224.71999999999997</v>
+      </c>
+      <c r="AA5" s="9">
         <f>28.21+10.94+8.3</f>
         <v>47.45</v>
       </c>
-      <c r="X5" s="10">
+      <c r="AB5" s="9">
         <f>J18</f>
         <v>95</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="AC5" s="9">
         <f>L18</f>
-        <v>82</v>
-      </c>
-      <c r="Z5" s="10">
-        <f>SUM(AA5:AC5)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10">
+        <v>82.27</v>
+      </c>
+      <c r="AD5" s="9">
         <f>SUM(AE5:AG5)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="11"/>
+      <c r="AE5" s="9">
+        <f>P18</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9">
+        <f>SUM(AI5:AK5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="10"/>
     </row>
-    <row r="6" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1625,83 +1695,91 @@
       <c r="M6" s="3">
         <v>608778</v>
       </c>
-      <c r="N6" s="3">
-        <v>29010</v>
-      </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="25" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
+        <v>608778</v>
+      </c>
+      <c r="R6" s="3">
+        <v>30086</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="T6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="26">
-        <f>Q5/Q4</f>
-        <v>0.46576555491990845</v>
-      </c>
-      <c r="R6" s="26">
-        <f t="shared" ref="R6:AG6" si="1">R5/R4</f>
+      <c r="U6" s="25">
+        <f>U5/U4</f>
+        <v>0.46607447940503433</v>
+      </c>
+      <c r="V6" s="25">
+        <f t="shared" ref="V6:AK6" si="1">V5/V4</f>
         <v>1.6401709152240369</v>
       </c>
-      <c r="S6" s="26">
+      <c r="W6" s="25">
         <f t="shared" si="1"/>
         <v>0.80330035130692623</v>
       </c>
-      <c r="T6" s="26">
+      <c r="X6" s="25">
         <f t="shared" si="1"/>
         <v>1.241071809677381</v>
       </c>
-      <c r="U6" s="26">
+      <c r="Y6" s="25">
         <f t="shared" si="1"/>
         <v>1.9014561842315332</v>
       </c>
-      <c r="V6" s="26">
+      <c r="Z6" s="25">
         <f t="shared" si="1"/>
-        <v>1.0350978650558893</v>
-      </c>
-      <c r="W6" s="26">
+        <v>1.0363430262212494</v>
+      </c>
+      <c r="AA6" s="25">
         <f t="shared" si="1"/>
         <v>0.75930934054503862</v>
       </c>
-      <c r="X6" s="26">
+      <c r="AB6" s="25">
         <f t="shared" si="1"/>
         <v>1.3191219924018573</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="AC6" s="25">
         <f t="shared" si="1"/>
-        <v>0.99598206260597477</v>
-      </c>
-      <c r="Z6" s="26">
+        <v>0.99926151573894562</v>
+      </c>
+      <c r="AD6" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AE6" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AF6" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AG6" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AH6" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AI6" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="26">
+      <c r="AJ6" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="27">
+      <c r="AK6" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1741,83 +1819,91 @@
       <c r="M7" s="3">
         <v>957384</v>
       </c>
-      <c r="N7" s="3">
-        <v>21250</v>
-      </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="9" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
+        <v>957384</v>
+      </c>
+      <c r="R7" s="3">
+        <v>34000</v>
+      </c>
+      <c r="S7" s="35"/>
+      <c r="T7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="10">
-        <f>ROUNDUP(Q4-Q5,0)</f>
+      <c r="U7" s="9">
+        <f>ROUNDUP(U4-U5,0)</f>
         <v>467</v>
       </c>
-      <c r="R7" s="10">
-        <f t="shared" ref="R7:AG7" si="2">ROUNDUP(R4-R5,0)</f>
+      <c r="V7" s="9">
+        <f t="shared" ref="V7:AK7" si="2">ROUNDUP(V4-V5,0)</f>
         <v>-72</v>
       </c>
-      <c r="S7" s="10">
+      <c r="W7" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T7" s="10">
+      <c r="X7" s="9">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
-      <c r="U7" s="10">
+      <c r="Y7" s="9">
         <f t="shared" si="2"/>
         <v>-65</v>
       </c>
-      <c r="V7" s="10">
+      <c r="Z7" s="9">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="W7" s="10">
+      <c r="AA7" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="X7" s="10">
+      <c r="AB7" s="9">
         <f t="shared" si="2"/>
         <v>-23</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="AC7" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AD7" s="9">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AE7" s="9">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AF7" s="9">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="AC7" s="10">
+      <c r="AG7" s="9">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AH7" s="9">
         <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AI7" s="9">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AJ7" s="9">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AK7" s="9">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1864,61 +1950,76 @@
         <f>SUM(M3:M7)</f>
         <v>5292358.8499999996</v>
       </c>
-      <c r="N8" s="4">
-        <f>SUM(N3:N7)</f>
-        <v>79795</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="20" t="s">
+      <c r="N8" s="4"/>
+      <c r="O8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM(P3:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM(Q3:Q7)</f>
+        <v>5292358.8499999996</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM(R3:R7)</f>
+        <v>274235</v>
+      </c>
+      <c r="S8" s="36"/>
+      <c r="T8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="21">
-        <f>R8+V8+Z8+AD8</f>
-        <v>5</v>
-      </c>
-      <c r="R8" s="21">
-        <f>SUM(S8:U8)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="21">
-        <v>0</v>
-      </c>
-      <c r="T8" s="21">
-        <v>0</v>
-      </c>
-      <c r="U8" s="21">
-        <v>0</v>
-      </c>
-      <c r="V8" s="21">
+      <c r="U8" s="20">
+        <f>V8+Z8+AD8+AH8</f>
+        <v>24.41</v>
+      </c>
+      <c r="V8" s="20">
         <f>SUM(W8:Y8)</f>
-        <v>5</v>
-      </c>
-      <c r="W8" s="21">
-        <v>0</v>
-      </c>
-      <c r="X8" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="21">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20">
+        <f>SUM(AA8:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20">
         <f>N18</f>
-        <v>5</v>
-      </c>
-      <c r="Z8" s="21">
-        <f>SUM(AA8:AC8)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="20">
         <f>SUM(AE8:AG8)</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="22"/>
+        <v>24.41</v>
+      </c>
+      <c r="AE8" s="20">
+        <f>R18</f>
+        <v>24.41</v>
+      </c>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20">
+        <f>SUM(AI8:AK8)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="21"/>
     </row>
-    <row r="9" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -1967,162 +2068,186 @@
       </c>
       <c r="N9" s="4" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>50785</v>
-      </c>
-      <c r="O9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4" cm="1">
+        <f t="array" ref="P9">SUM(SUMIFS(P3:P7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" cm="1">
+        <f t="array" ref="Q9">SUM(SUMIFS(Q3:Q7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>4081530.95</v>
+      </c>
+      <c r="R9" s="4" cm="1">
+        <f t="array" ref="R9">SUM(SUMIFS(R3:R7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>244149</v>
+      </c>
+      <c r="S9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="T9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="U9" s="17">
         <v>150</v>
       </c>
-      <c r="R9" s="18">
-        <f>150*R3</f>
+      <c r="V9" s="17">
+        <f>150*V3</f>
         <v>19.110000000000003</v>
       </c>
-      <c r="S9" s="18">
-        <f t="shared" ref="S9:AG9" si="3">150*S3</f>
+      <c r="W9" s="17">
+        <f t="shared" ref="W9:AK9" si="3">150*W3</f>
         <v>1.0650000000000002</v>
       </c>
-      <c r="T9" s="18">
+      <c r="X9" s="17">
         <f t="shared" si="3"/>
         <v>5.79</v>
       </c>
-      <c r="U9" s="18">
+      <c r="Y9" s="17">
         <f t="shared" si="3"/>
         <v>12.254999999999999</v>
       </c>
-      <c r="V9" s="18">
+      <c r="Z9" s="17">
         <f t="shared" si="3"/>
         <v>37.214999999999996</v>
       </c>
-      <c r="W9" s="18">
+      <c r="AA9" s="17">
         <f t="shared" si="3"/>
         <v>10.725</v>
       </c>
-      <c r="X9" s="18">
-        <f>150*X3</f>
+      <c r="AB9" s="17">
+        <f>150*AB3</f>
         <v>12.36</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="AC9" s="17">
         <f t="shared" si="3"/>
         <v>14.13</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AD9" s="17">
         <f t="shared" si="3"/>
         <v>43.034999999999997</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AE9" s="17">
         <f t="shared" si="3"/>
         <v>12.600000000000001</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AF9" s="17">
         <f t="shared" si="3"/>
         <v>12.855</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AG9" s="17">
         <f t="shared" si="3"/>
         <v>17.579999999999998</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AH9" s="17">
         <f t="shared" si="3"/>
         <v>50.64</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AI9" s="17">
         <f t="shared" si="3"/>
         <v>13.095000000000001</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AJ9" s="17">
         <f t="shared" si="3"/>
         <v>15.315</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AK9" s="18">
         <f t="shared" si="3"/>
         <v>22.23</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31" t="s">
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31" t="s">
+      <c r="J10" s="32"/>
+      <c r="K10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="8" t="s">
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="10">
-        <f>R10+V10+Z10+AD10</f>
-        <v>59.508980000000001</v>
-      </c>
-      <c r="R10" s="10">
-        <f>SUM(S10:U10)</f>
+      <c r="U10" s="9">
+        <f>V10+Z10+AD10+AH10</f>
+        <v>59.65898</v>
+      </c>
+      <c r="V10" s="9">
+        <f>SUM(W10:Y10)</f>
         <v>13.30898</v>
       </c>
-      <c r="S10" s="10">
+      <c r="W10" s="9">
         <v>0.4335</v>
       </c>
-      <c r="T10" s="10">
+      <c r="X10" s="9">
         <v>2.0263800000000001</v>
       </c>
-      <c r="U10" s="10">
+      <c r="Y10" s="9">
         <v>10.8491</v>
       </c>
-      <c r="V10" s="10">
-        <f>SUM(W10:Y10)</f>
-        <v>46.2</v>
-      </c>
-      <c r="W10" s="10">
+      <c r="Z10" s="9">
+        <f>SUM(AA10:AC10)</f>
+        <v>46.35</v>
+      </c>
+      <c r="AA10" s="9">
         <v>1.2</v>
       </c>
-      <c r="X10" s="10">
+      <c r="AB10" s="9">
         <f>J13</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="AC10" s="9">
         <f>L13</f>
-        <v>45</v>
-      </c>
-      <c r="Z10" s="10">
-        <f>SUM(AA10:AC10)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10">
+        <v>45.15</v>
+      </c>
+      <c r="AD10" s="9">
         <f>SUM(AE10:AG10)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="11"/>
-      <c r="AJ10" s="28"/>
+      <c r="AE10" s="9">
+        <f>P13</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9">
+        <f>SUM(AI10:AK10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="10"/>
+      <c r="AN10" s="27"/>
     </row>
-    <row r="11" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,80 +2290,92 @@
       <c r="N11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="14" t="s">
+      <c r="O11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="26">
-        <f>Q10/Q9</f>
-        <v>0.39672653333333335</v>
-      </c>
-      <c r="R11" s="26">
-        <f t="shared" ref="R11:AG11" si="4">R10/R9</f>
+      <c r="U11" s="25">
+        <f>U10/U9</f>
+        <v>0.39772653333333335</v>
+      </c>
+      <c r="V11" s="25">
+        <f t="shared" ref="V11:AK11" si="4">V10/V9</f>
         <v>0.69644060701203547</v>
       </c>
-      <c r="S11" s="26">
+      <c r="W11" s="25">
         <f t="shared" si="4"/>
         <v>0.40704225352112672</v>
       </c>
-      <c r="T11" s="26">
+      <c r="X11" s="25">
         <f t="shared" si="4"/>
         <v>0.34997927461139899</v>
       </c>
-      <c r="U11" s="26">
+      <c r="Y11" s="25">
         <f t="shared" si="4"/>
         <v>0.88527947776417792</v>
       </c>
-      <c r="V11" s="26">
+      <c r="Z11" s="25">
         <f t="shared" si="4"/>
-        <v>1.2414349052801292</v>
-      </c>
-      <c r="W11" s="26">
+        <v>1.2454655380894801</v>
+      </c>
+      <c r="AA11" s="25">
         <f t="shared" si="4"/>
         <v>0.11188811188811189</v>
       </c>
-      <c r="X11" s="26">
+      <c r="AB11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="AC11" s="25">
         <f t="shared" si="4"/>
-        <v>3.1847133757961781</v>
-      </c>
-      <c r="Z11" s="26">
+        <v>3.1953290870488318</v>
+      </c>
+      <c r="AD11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="26">
+      <c r="AE11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AF11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AG11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="26">
+      <c r="AH11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="26">
+      <c r="AI11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="26">
+      <c r="AJ11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AK11" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2277,104 +2414,119 @@
       <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="3">
-        <f t="shared" ref="L12:N18" si="8">ROUNDDOWN(L3/10000,0)</f>
+      <c r="L12" s="45">
+        <f>ROUND(L3/10000,2)</f>
+        <v>45.44</v>
+      </c>
+      <c r="M12" s="45">
+        <f t="shared" ref="M12:N12" si="8">ROUND(M3/10000,2)</f>
+        <v>281.62</v>
+      </c>
+      <c r="N12" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="3">
-        <f t="shared" si="8"/>
-        <v>281</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="8"/>
+      <c r="P12" s="45">
+        <f>ROUND(P3/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="45">
+        <f t="shared" ref="Q12:R12" si="9">ROUND(Q3/10000,2)</f>
+        <v>281.62</v>
+      </c>
+      <c r="R12" s="45">
+        <f t="shared" si="9"/>
+        <v>21.01</v>
+      </c>
+      <c r="S12" s="35"/>
+      <c r="T12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="9">
+        <f>ROUNDUP(U9-U10,0)</f>
+        <v>91</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" ref="V12:AK12" si="10">ROUNDUP(V9-V10,0)</f>
+        <v>6</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Y12" s="9">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="10">
-        <f>ROUNDUP(Q9-Q10,0)</f>
-        <v>91</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:AG12" si="9">ROUNDUP(R9-R10,0)</f>
-        <v>6</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="10">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="U12" s="10">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="V12" s="10">
-        <f t="shared" si="9"/>
-        <v>-9</v>
-      </c>
-      <c r="W12" s="10">
-        <f t="shared" si="9"/>
+      <c r="Z12" s="9">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="X12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AB12" s="9">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="Y12" s="10">
-        <f t="shared" si="9"/>
-        <v>-31</v>
-      </c>
-      <c r="Z12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AC12" s="9">
+        <f t="shared" si="10"/>
+        <v>-32</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="AA12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AE12" s="9">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AB12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AF12" s="9">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AC12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AG12" s="9">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="AD12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AH12" s="9">
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="AE12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AI12" s="9">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="AF12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AJ12" s="9">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="AG12" s="10">
-        <f t="shared" si="9"/>
+      <c r="AK12" s="9">
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" ref="B13" si="10">ROUNDDOWN(B4/10000,0)</f>
+        <f t="shared" ref="B13" si="11">ROUNDDOWN(B4/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13" si="11">ROUNDDOWN(D4/10000,0)</f>
+        <f t="shared" ref="D13" si="12">ROUNDDOWN(D4/10000,0)</f>
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2401,81 +2553,99 @@
       <c r="K13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="20" t="s">
+      <c r="L13" s="46">
+        <f t="shared" ref="L13:N13" si="13">ROUND(L4/10000,2)</f>
+        <v>45.15</v>
+      </c>
+      <c r="M13" s="46">
+        <f t="shared" si="13"/>
+        <v>60.2</v>
+      </c>
+      <c r="N13" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="46">
+        <f t="shared" ref="P13:R13" si="14">ROUND(P4/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="46">
+        <f t="shared" si="14"/>
+        <v>60.2</v>
+      </c>
+      <c r="R13" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="36"/>
+      <c r="T13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="21">
-        <f>R13+V13+Z13+AD13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <f>SUM(S13:U13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <v>0</v>
-      </c>
-      <c r="T13" s="21">
-        <v>0</v>
-      </c>
-      <c r="U13" s="21">
-        <v>0</v>
-      </c>
-      <c r="V13" s="21">
+      <c r="U13" s="20">
+        <f>V13+Z13+AD13+AH13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="20">
         <f>SUM(W13:Y13)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="21">
-        <v>0</v>
-      </c>
-      <c r="X13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="21">
+      <c r="W13" s="20">
+        <v>0</v>
+      </c>
+      <c r="X13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="20">
+        <f>SUM(AA13:AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="20">
         <f>N13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="21">
-        <f>SUM(AA13:AC13)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21">
+      <c r="AD13" s="20">
         <f>SUM(AE13:AG13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="22"/>
+      <c r="AE13" s="20">
+        <f>R13</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20">
+        <f>SUM(AI13:AK13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="21"/>
     </row>
-    <row r="14" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" ref="B14" si="12">ROUNDDOWN(B5/10000,0)</f>
+        <f t="shared" ref="B14" si="15">ROUNDDOWN(B5/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14" si="13">ROUNDDOWN(D5/10000,0)</f>
+        <f t="shared" ref="D14" si="16">ROUNDDOWN(D5/10000,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2502,105 +2672,120 @@
       <c r="K14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="33" t="s">
+      <c r="L14" s="45">
+        <f t="shared" ref="L14:N14" si="17">ROUND(L5/10000,2)</f>
+        <v>3.32</v>
+      </c>
+      <c r="M14" s="45">
+        <f t="shared" si="17"/>
+        <v>30.79</v>
+      </c>
+      <c r="N14" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="45">
+        <f t="shared" ref="P14:R14" si="18">ROUND(P5/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="45">
+        <f t="shared" si="18"/>
+        <v>30.79</v>
+      </c>
+      <c r="R14" s="45">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="T14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="U14" s="17">
         <v>176</v>
       </c>
-      <c r="R14" s="18">
-        <f>176*R3</f>
+      <c r="V14" s="17">
+        <f>176*V3</f>
         <v>22.422400000000003</v>
       </c>
-      <c r="S14" s="18">
-        <f t="shared" ref="S14:AG14" si="14">176*S3</f>
+      <c r="W14" s="17">
+        <f t="shared" ref="W14:AK14" si="19">176*W3</f>
         <v>1.2496</v>
       </c>
-      <c r="T14" s="18">
-        <f t="shared" si="14"/>
+      <c r="X14" s="17">
+        <f t="shared" si="19"/>
         <v>6.7936000000000005</v>
       </c>
-      <c r="U14" s="18">
-        <f t="shared" si="14"/>
+      <c r="Y14" s="17">
+        <f t="shared" si="19"/>
         <v>14.379199999999999</v>
       </c>
-      <c r="V14" s="18">
-        <f t="shared" si="14"/>
+      <c r="Z14" s="17">
+        <f t="shared" si="19"/>
         <v>43.665599999999998</v>
       </c>
-      <c r="W14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AA14" s="17">
+        <f t="shared" si="19"/>
         <v>12.584</v>
       </c>
-      <c r="X14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AB14" s="17">
+        <f t="shared" si="19"/>
         <v>14.5024</v>
       </c>
-      <c r="Y14" s="18">
-        <f>176*Y3</f>
+      <c r="AC14" s="17">
+        <f>176*AC3</f>
         <v>16.5792</v>
       </c>
-      <c r="Z14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AD14" s="17">
+        <f t="shared" si="19"/>
         <v>50.494399999999999</v>
       </c>
-      <c r="AA14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AE14" s="17">
+        <f t="shared" si="19"/>
         <v>14.784000000000001</v>
       </c>
-      <c r="AB14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AF14" s="17">
+        <f t="shared" si="19"/>
         <v>15.0832</v>
       </c>
-      <c r="AC14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AG14" s="17">
+        <f t="shared" si="19"/>
         <v>20.627199999999998</v>
       </c>
-      <c r="AD14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AH14" s="17">
+        <f t="shared" si="19"/>
         <v>59.4176</v>
       </c>
-      <c r="AE14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AI14" s="17">
+        <f t="shared" si="19"/>
         <v>15.364800000000001</v>
       </c>
-      <c r="AF14" s="18">
-        <f t="shared" si="14"/>
+      <c r="AJ14" s="17">
+        <f t="shared" si="19"/>
         <v>17.9696</v>
       </c>
-      <c r="AG14" s="19">
-        <f t="shared" si="14"/>
+      <c r="AK14" s="18">
+        <f t="shared" si="19"/>
         <v>26.083199999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15" si="15">ROUNDDOWN(B6/10000,0)</f>
+        <f t="shared" ref="B15" si="20">ROUNDDOWN(B6/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15" si="16">ROUNDDOWN(D6/10000,0)</f>
+        <f t="shared" ref="D15" si="21">ROUNDDOWN(D6/10000,0)</f>
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2627,82 +2812,100 @@
       <c r="K15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="4">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="8"/>
+      <c r="L15" s="46">
+        <f t="shared" ref="L15:N15" si="22">ROUND(L6/10000,2)</f>
+        <v>28.43</v>
+      </c>
+      <c r="M15" s="46">
+        <f t="shared" si="22"/>
+        <v>60.88</v>
+      </c>
+      <c r="N15" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="46">
+        <f t="shared" ref="P15:R15" si="23">ROUND(P6/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="46">
+        <f t="shared" si="23"/>
+        <v>60.88</v>
+      </c>
+      <c r="R15" s="46">
+        <f t="shared" si="23"/>
+        <v>3.01</v>
+      </c>
+      <c r="S15" s="35"/>
+      <c r="T15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="10">
-        <f>R15+V15+Z15+AD15</f>
-        <v>59.546700000000001</v>
-      </c>
-      <c r="R15" s="10">
-        <f>SUM(S15:U15)</f>
+      <c r="U15" s="9">
+        <f>V15+Z15+AD15+AH15</f>
+        <v>59.976699999999994</v>
+      </c>
+      <c r="V15" s="9">
+        <f>SUM(W15:Y15)</f>
         <v>21.202400000000001</v>
       </c>
-      <c r="S15" s="10">
+      <c r="W15" s="9">
         <v>0.93700000000000006</v>
       </c>
-      <c r="T15" s="10">
+      <c r="X15" s="9">
         <v>1.9610000000000001</v>
       </c>
-      <c r="U15" s="10">
+      <c r="Y15" s="9">
         <v>18.304400000000001</v>
       </c>
-      <c r="V15" s="10">
-        <f>SUM(W15:Y15)</f>
-        <v>38.344300000000004</v>
-      </c>
-      <c r="W15" s="10">
+      <c r="Z15" s="9">
+        <f>SUM(AA15:AC15)</f>
+        <v>38.774299999999997</v>
+      </c>
+      <c r="AA15" s="9">
         <v>4.3442999999999996</v>
       </c>
-      <c r="X15" s="10">
+      <c r="AB15" s="9">
         <f>J15</f>
         <v>6</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="AC15" s="9">
         <f>L15</f>
-        <v>28</v>
-      </c>
-      <c r="Z15" s="10">
-        <f>SUM(AA15:AC15)</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10">
+        <v>28.43</v>
+      </c>
+      <c r="AD15" s="9">
         <f>SUM(AE15:AG15)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="11"/>
+      <c r="AE15" s="9">
+        <f>P15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9">
+        <f>SUM(AI15:AK15)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="10"/>
     </row>
-    <row r="16" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ref="B16" si="17">ROUNDDOWN(B7/10000,0)</f>
+        <f t="shared" ref="B16" si="24">ROUNDDOWN(B7/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16" si="18">ROUNDDOWN(D7/10000,0)</f>
+        <f t="shared" ref="D16" si="25">ROUNDDOWN(D7/10000,0)</f>
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2729,104 +2932,119 @@
       <c r="K16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="3">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="14" t="s">
+      <c r="L16" s="45">
+        <f t="shared" ref="L16:N16" si="26">ROUND(L7/10000,2)</f>
+        <v>33.51</v>
+      </c>
+      <c r="M16" s="45">
+        <f t="shared" si="26"/>
+        <v>95.74</v>
+      </c>
+      <c r="N16" s="45">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="45">
+        <f t="shared" ref="P16:R16" si="27">ROUND(P7/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="45">
+        <f t="shared" si="27"/>
+        <v>95.74</v>
+      </c>
+      <c r="R16" s="45">
+        <f t="shared" si="27"/>
+        <v>3.4</v>
+      </c>
+      <c r="S16" s="35"/>
+      <c r="T16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="26">
-        <f>Q15/Q14</f>
-        <v>0.33833352272727274</v>
-      </c>
-      <c r="R16" s="26">
-        <f t="shared" ref="R16:AG16" si="19">R15/R14</f>
+      <c r="U16" s="25">
+        <f>U15/U14</f>
+        <v>0.3407767045454545</v>
+      </c>
+      <c r="V16" s="25">
+        <f t="shared" ref="V16:AK16" si="28">V15/V14</f>
         <v>0.94559012416155264</v>
       </c>
-      <c r="S16" s="26">
-        <f t="shared" si="19"/>
+      <c r="W16" s="25">
+        <f t="shared" si="28"/>
         <v>0.74983994878361082</v>
       </c>
-      <c r="T16" s="26">
-        <f t="shared" si="19"/>
+      <c r="X16" s="25">
+        <f t="shared" si="28"/>
         <v>0.28865402731983042</v>
       </c>
-      <c r="U16" s="26">
-        <f t="shared" si="19"/>
+      <c r="Y16" s="25">
+        <f t="shared" si="28"/>
         <v>1.2729776343607435</v>
       </c>
-      <c r="V16" s="26">
-        <f t="shared" si="19"/>
-        <v>0.87813519108863747</v>
-      </c>
-      <c r="W16" s="26">
-        <f t="shared" si="19"/>
+      <c r="Z16" s="25">
+        <f t="shared" si="28"/>
+        <v>0.88798275988421083</v>
+      </c>
+      <c r="AA16" s="25">
+        <f t="shared" si="28"/>
         <v>0.34522409408773042</v>
       </c>
-      <c r="X16" s="26">
-        <f t="shared" si="19"/>
+      <c r="AB16" s="25">
+        <f t="shared" si="28"/>
         <v>0.41372462488967343</v>
       </c>
-      <c r="Y16" s="26">
-        <f t="shared" si="19"/>
-        <v>1.6888631538313066</v>
-      </c>
-      <c r="Z16" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="27">
-        <f t="shared" si="19"/>
+      <c r="AC16" s="25">
+        <f t="shared" si="28"/>
+        <v>1.7147992665508589</v>
+      </c>
+      <c r="AD16" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="26">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ref="B17" si="20">ROUNDDOWN(B8/10000,0)</f>
+        <f t="shared" ref="B17" si="29">ROUNDDOWN(B8/10000,0)</f>
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17" si="21">ROUNDDOWN(D8/10000,0)</f>
+        <f t="shared" ref="D17" si="30">ROUNDDOWN(D8/10000,0)</f>
         <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -2853,104 +3071,119 @@
       <c r="K17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="7">
-        <f t="shared" si="8"/>
-        <v>155</v>
-      </c>
-      <c r="M17" s="7">
-        <f t="shared" si="8"/>
-        <v>529</v>
-      </c>
-      <c r="N17" s="7">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="8" t="s">
+      <c r="L17" s="45">
+        <f t="shared" ref="L17:N17" si="31">ROUND(L8/10000,2)</f>
+        <v>155.85</v>
+      </c>
+      <c r="M17" s="45">
+        <f t="shared" si="31"/>
+        <v>529.24</v>
+      </c>
+      <c r="N17" s="45">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="45">
+        <f t="shared" ref="P17:R17" si="32">ROUND(P8/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="45">
+        <f t="shared" si="32"/>
+        <v>529.24</v>
+      </c>
+      <c r="R17" s="45">
+        <f t="shared" si="32"/>
+        <v>27.42</v>
+      </c>
+      <c r="S17" s="35"/>
+      <c r="T17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="10">
-        <f>ROUNDUP(Q14-Q15,0)</f>
+      <c r="U17" s="9">
+        <f>ROUNDUP(U14-U15,0)</f>
         <v>117</v>
       </c>
-      <c r="R17" s="10">
-        <f t="shared" ref="R17:AG17" si="22">ROUNDUP(R14-R15,0)</f>
+      <c r="V17" s="9">
+        <f t="shared" ref="V17:AK17" si="33">ROUNDUP(V14-V15,0)</f>
         <v>2</v>
       </c>
-      <c r="S17" s="10">
-        <f t="shared" si="22"/>
+      <c r="W17" s="9">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="T17" s="10">
-        <f t="shared" si="22"/>
+      <c r="X17" s="9">
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
-      <c r="U17" s="10">
-        <f t="shared" si="22"/>
+      <c r="Y17" s="9">
+        <f t="shared" si="33"/>
         <v>-4</v>
       </c>
-      <c r="V17" s="10">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="W17" s="10">
-        <f t="shared" si="22"/>
+      <c r="Z17" s="9">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
-      <c r="X17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AB17" s="9">
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
-      <c r="Y17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AC17" s="9">
+        <f t="shared" si="33"/>
         <v>-12</v>
       </c>
-      <c r="Z17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AD17" s="9">
+        <f t="shared" si="33"/>
         <v>51</v>
       </c>
-      <c r="AA17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AE17" s="9">
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
-      <c r="AB17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AF17" s="9">
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
-      <c r="AC17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AG17" s="9">
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
-      <c r="AD17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AH17" s="9">
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
-      <c r="AE17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AI17" s="9">
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
-      <c r="AF17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AJ17" s="9">
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
-      <c r="AG17" s="10">
-        <f t="shared" si="22"/>
+      <c r="AK17" s="9">
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18" si="23">ROUNDDOWN(B9/10000,0)</f>
+        <f t="shared" ref="B18" si="34">ROUNDDOWN(B9/10000,0)</f>
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18" si="24">ROUNDDOWN(D9/10000,0)</f>
+        <f t="shared" ref="D18" si="35">ROUNDDOWN(D9/10000,0)</f>
         <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2977,171 +3210,195 @@
       <c r="K18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="4">
-        <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="8"/>
-        <v>408</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="20" t="s">
+      <c r="L18" s="46">
+        <f t="shared" ref="L18:N18" si="36">ROUND(L9/10000,2)</f>
+        <v>82.27</v>
+      </c>
+      <c r="M18" s="46">
+        <f t="shared" si="36"/>
+        <v>408.15</v>
+      </c>
+      <c r="N18" s="46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="46">
+        <f t="shared" ref="P18:R18" si="37">ROUND(P9/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <f t="shared" si="37"/>
+        <v>408.15</v>
+      </c>
+      <c r="R18" s="46">
+        <f t="shared" si="37"/>
+        <v>24.41</v>
+      </c>
+      <c r="S18" s="36"/>
+      <c r="T18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="21">
-        <f>R18+V18+Z18+AD18</f>
-        <v>2</v>
-      </c>
-      <c r="R18" s="21">
-        <f>SUM(S18:U18)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="21">
-        <v>0</v>
-      </c>
-      <c r="T18" s="21">
-        <v>0</v>
-      </c>
-      <c r="U18" s="21">
-        <v>0</v>
-      </c>
-      <c r="V18" s="21">
+      <c r="U18" s="20">
+        <f>V18+Z18+AD18+AH18</f>
+        <v>3.01</v>
+      </c>
+      <c r="V18" s="20">
         <f>SUM(W18:Y18)</f>
-        <v>2</v>
-      </c>
-      <c r="W18" s="21">
-        <v>0</v>
-      </c>
-      <c r="X18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="21">
+        <v>0</v>
+      </c>
+      <c r="W18" s="20">
+        <v>0</v>
+      </c>
+      <c r="X18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="20">
+        <f>SUM(AA18:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="20">
         <f>N15</f>
-        <v>2</v>
-      </c>
-      <c r="Z18" s="21">
-        <f>SUM(AA18:AC18)</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="20">
         <f>SUM(AE18:AG18)</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="22"/>
+        <v>3.01</v>
+      </c>
+      <c r="AE18" s="20">
+        <f>R15</f>
+        <v>3.01</v>
+      </c>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20">
+        <f>SUM(AI18:AK18)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="21"/>
     </row>
-    <row r="19" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
+      <c r="H19" s="33"/>
+      <c r="I19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="30" t="s">
+      <c r="J19" s="33"/>
+      <c r="K19" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="33" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="T19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="18">
-        <f>Q14+Q9+Q4</f>
+      <c r="U19" s="17">
+        <f>U14+U9+U4</f>
         <v>1200</v>
       </c>
-      <c r="R19" s="18">
-        <f t="shared" ref="R19:AG20" si="25">R14+R9+R4</f>
+      <c r="V19" s="17">
+        <f t="shared" ref="V19:AK20" si="38">V14+V9+V4</f>
         <v>152.88000000000002</v>
       </c>
-      <c r="S19" s="18">
-        <f t="shared" si="25"/>
+      <c r="W19" s="17">
+        <f t="shared" si="38"/>
         <v>8.52</v>
       </c>
-      <c r="T19" s="18">
-        <f t="shared" si="25"/>
+      <c r="X19" s="17">
+        <f t="shared" si="38"/>
         <v>46.320000000000007</v>
       </c>
-      <c r="U19" s="18">
-        <f t="shared" si="25"/>
+      <c r="Y19" s="17">
+        <f t="shared" si="38"/>
         <v>98.039999999999992</v>
       </c>
-      <c r="V19" s="18">
-        <f t="shared" si="25"/>
+      <c r="Z19" s="17">
+        <f t="shared" si="38"/>
         <v>297.71999999999997</v>
       </c>
-      <c r="W19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AA19" s="17">
+        <f t="shared" si="38"/>
         <v>85.799999999999983</v>
       </c>
-      <c r="X19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AB19" s="17">
+        <f t="shared" si="38"/>
         <v>98.88</v>
       </c>
-      <c r="Y19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AC19" s="17">
+        <f t="shared" si="38"/>
         <v>113.04000000000002</v>
       </c>
-      <c r="Z19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AD19" s="17">
+        <f t="shared" si="38"/>
         <v>344.28</v>
       </c>
-      <c r="AA19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AE19" s="17">
+        <f t="shared" si="38"/>
         <v>100.80000000000001</v>
       </c>
-      <c r="AB19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AF19" s="17">
+        <f t="shared" si="38"/>
         <v>102.84</v>
       </c>
-      <c r="AC19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AG19" s="17">
+        <f t="shared" si="38"/>
         <v>140.63999999999999</v>
       </c>
-      <c r="AD19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AH19" s="17">
+        <f t="shared" si="38"/>
         <v>405.12</v>
       </c>
-      <c r="AE19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AI19" s="17">
+        <f t="shared" si="38"/>
         <v>104.76</v>
       </c>
-      <c r="AF19" s="18">
-        <f t="shared" si="25"/>
+      <c r="AJ19" s="17">
+        <f t="shared" si="38"/>
         <v>122.52</v>
       </c>
-      <c r="AG19" s="19">
-        <f t="shared" si="25"/>
+      <c r="AK19" s="18">
+        <f t="shared" si="38"/>
         <v>177.84</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3184,80 +3441,92 @@
       <c r="N20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="8" t="s">
+      <c r="O20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" s="35"/>
+      <c r="T20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="10">
-        <f>Q15+Q10+Q5</f>
-        <v>526.13477499999999</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="25"/>
+      <c r="U20" s="9">
+        <f>U15+U10+U5</f>
+        <v>526.98477500000001</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="38"/>
         <v>217.14047500000001</v>
       </c>
-      <c r="S20" s="10">
-        <f t="shared" si="25"/>
+      <c r="W20" s="9">
+        <f t="shared" si="38"/>
         <v>6.3552999999999997</v>
       </c>
-      <c r="T20" s="10">
-        <f t="shared" si="25"/>
+      <c r="X20" s="9">
+        <f t="shared" si="38"/>
         <v>45.856675000000003</v>
       </c>
-      <c r="U20" s="10">
-        <f t="shared" si="25"/>
+      <c r="Y20" s="9">
+        <f t="shared" si="38"/>
         <v>164.92850000000001</v>
       </c>
-      <c r="V20" s="10">
-        <f t="shared" si="25"/>
-        <v>308.99430000000001</v>
-      </c>
-      <c r="W20" s="10">
-        <f t="shared" si="25"/>
+      <c r="Z20" s="9">
+        <f t="shared" si="38"/>
+        <v>309.84429999999998</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="38"/>
         <v>52.994300000000003</v>
       </c>
-      <c r="X20" s="10">
-        <f t="shared" si="25"/>
+      <c r="AB20" s="9">
+        <f t="shared" si="38"/>
         <v>101</v>
       </c>
-      <c r="Y20" s="10">
-        <f t="shared" si="25"/>
-        <v>155</v>
-      </c>
-      <c r="Z20" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="11">
-        <f t="shared" si="25"/>
+      <c r="AC20" s="9">
+        <f t="shared" si="38"/>
+        <v>155.85</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="10">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -3297,83 +3566,89 @@
       <c r="M21" s="1">
         <v>12221894.060000001</v>
       </c>
-      <c r="N21" s="1">
-        <v>1474426.24</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="14" t="s">
+      <c r="O21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>12221894.060000001</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1577426.24</v>
+      </c>
+      <c r="S21" s="35"/>
+      <c r="T21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="26">
-        <f>Q20/Q19</f>
-        <v>0.43844564583333334</v>
-      </c>
-      <c r="R21" s="26">
-        <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
+      <c r="U21" s="25">
+        <f>U20/U19</f>
+        <v>0.43915397916666665</v>
+      </c>
+      <c r="V21" s="25">
+        <f t="shared" ref="V21:AK21" si="39">V20/V19</f>
         <v>1.4203327773417058</v>
       </c>
-      <c r="S21" s="26">
-        <f t="shared" si="26"/>
+      <c r="W21" s="25">
+        <f t="shared" si="39"/>
         <v>0.74592723004694839</v>
       </c>
-      <c r="T21" s="26">
-        <f t="shared" si="26"/>
+      <c r="X21" s="25">
+        <f t="shared" si="39"/>
         <v>0.98999730138169251</v>
       </c>
-      <c r="U21" s="26">
-        <f t="shared" si="26"/>
+      <c r="Y21" s="25">
+        <f t="shared" si="39"/>
         <v>1.6822572419420647</v>
       </c>
-      <c r="V21" s="26">
-        <f t="shared" si="26"/>
-        <v>1.0378688029020557</v>
-      </c>
-      <c r="W21" s="26">
-        <f t="shared" si="26"/>
+      <c r="Z21" s="25">
+        <f t="shared" si="39"/>
+        <v>1.040723834475346</v>
+      </c>
+      <c r="AA21" s="25">
+        <f t="shared" si="39"/>
         <v>0.61764918414918435</v>
       </c>
-      <c r="X21" s="26">
-        <f t="shared" si="26"/>
+      <c r="AB21" s="25">
+        <f t="shared" si="39"/>
         <v>1.0214401294498383</v>
       </c>
-      <c r="Y21" s="26">
-        <f t="shared" si="26"/>
-        <v>1.371196036801132</v>
-      </c>
-      <c r="Z21" s="26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="27">
-        <f t="shared" si="26"/>
+      <c r="AC21" s="25">
+        <f t="shared" si="39"/>
+        <v>1.3787154989384285</v>
+      </c>
+      <c r="AD21" s="25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="26">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3413,83 +3688,89 @@
       <c r="M22" s="1">
         <v>721909.47</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="8" t="s">
+      <c r="O22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>721909.47</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="T22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="10">
-        <f>ROUNDUP(Q19-Q20,0)</f>
+      <c r="U22" s="9">
+        <f>ROUNDUP(U19-U20,0)</f>
         <v>674</v>
       </c>
-      <c r="R22" s="10">
-        <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
+      <c r="V22" s="9">
+        <f t="shared" ref="V22:AK22" si="40">ROUNDUP(V19-V20,0)</f>
         <v>-65</v>
       </c>
-      <c r="S22" s="10">
-        <f t="shared" si="27"/>
+      <c r="W22" s="9">
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="T22" s="10">
-        <f t="shared" si="27"/>
+      <c r="X22" s="9">
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="U22" s="10">
-        <f t="shared" si="27"/>
+      <c r="Y22" s="9">
+        <f t="shared" si="40"/>
         <v>-67</v>
       </c>
-      <c r="V22" s="10">
-        <f t="shared" si="27"/>
-        <v>-12</v>
-      </c>
-      <c r="W22" s="10">
-        <f t="shared" si="27"/>
+      <c r="Z22" s="9">
+        <f t="shared" si="40"/>
+        <v>-13</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" si="40"/>
         <v>33</v>
       </c>
-      <c r="X22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AB22" s="9">
+        <f t="shared" si="40"/>
         <v>-3</v>
       </c>
-      <c r="Y22" s="10">
-        <f t="shared" si="27"/>
-        <v>-42</v>
-      </c>
-      <c r="Z22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AC22" s="9">
+        <f t="shared" si="40"/>
+        <v>-43</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="40"/>
         <v>345</v>
       </c>
-      <c r="AA22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AE22" s="9">
+        <f t="shared" si="40"/>
         <v>101</v>
       </c>
-      <c r="AB22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AF22" s="9">
+        <f t="shared" si="40"/>
         <v>103</v>
       </c>
-      <c r="AC22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AG22" s="9">
+        <f t="shared" si="40"/>
         <v>141</v>
       </c>
-      <c r="AD22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AH22" s="9">
+        <f t="shared" si="40"/>
         <v>406</v>
       </c>
-      <c r="AE22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AI22" s="9">
+        <f t="shared" si="40"/>
         <v>105</v>
       </c>
-      <c r="AF22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AJ22" s="9">
+        <f t="shared" si="40"/>
         <v>123</v>
       </c>
-      <c r="AG22" s="10">
-        <f t="shared" si="27"/>
+      <c r="AK22" s="9">
+        <f t="shared" si="40"/>
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -3529,65 +3810,74 @@
       <c r="M23" s="1">
         <v>63084.4</v>
       </c>
-      <c r="N23" s="1">
-        <v>2785</v>
-      </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="20" t="s">
+      <c r="O23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>63084.4</v>
+      </c>
+      <c r="R23" s="1">
+        <v>7797</v>
+      </c>
+      <c r="S23" s="36"/>
+      <c r="T23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q23" s="21">
-        <f>Q8+Q13+Q18</f>
-        <v>7</v>
-      </c>
-      <c r="R23" s="21">
-        <f>SUM(S23:U23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <f>S8+S13+S18</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="21">
-        <f t="shared" ref="T23:U23" si="28">T8+T13+T18</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="21">
+      <c r="U23" s="20">
+        <f>U8+U13+U18</f>
+        <v>27.42</v>
+      </c>
+      <c r="V23" s="20">
         <f>SUM(W23:Y23)</f>
-        <v>7</v>
-      </c>
-      <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="W23" s="20">
         <f>W8+W13+W18</f>
         <v>0</v>
       </c>
-      <c r="X23" s="21">
-        <f t="shared" ref="X23:Y23" si="29">X8+X13+X18</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="21">
-        <f t="shared" si="29"/>
-        <v>7</v>
-      </c>
-      <c r="Z23" s="21">
+      <c r="X23" s="20">
+        <f t="shared" ref="X23:Y23" si="41">X8+X13+X18</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="20">
         <f>SUM(AA23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21">
+      <c r="AA23" s="20">
+        <f>AA8+AA13+AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="20">
+        <f t="shared" ref="AB23:AC23" si="42">AB8+AB13+AB18</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="20">
         <f>SUM(AE23:AG23)</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="22"/>
+        <v>27.42</v>
+      </c>
+      <c r="AE23" s="20">
+        <f>R18+R13+R15</f>
+        <v>27.42</v>
+      </c>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20">
+        <f>SUM(AI23:AK23)</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="21"/>
     </row>
-    <row r="24" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -3627,84 +3917,90 @@
       <c r="M24" s="1">
         <v>134013</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>134013</v>
+      </c>
+      <c r="R24" s="1">
         <v>2928</v>
       </c>
-      <c r="O24" s="33" t="s">
+      <c r="S24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="T24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="U24" s="17">
         <v>7050</v>
       </c>
-      <c r="R24" s="18">
-        <f>7050*R3</f>
+      <c r="V24" s="17">
+        <f>7050*V3</f>
         <v>898.17000000000007</v>
       </c>
-      <c r="S24" s="18">
-        <f t="shared" ref="S24:AG24" si="30">7050*S3</f>
+      <c r="W24" s="17">
+        <f t="shared" ref="W24:AK24" si="43">7050*W3</f>
         <v>50.055</v>
       </c>
-      <c r="T24" s="18">
-        <f t="shared" si="30"/>
+      <c r="X24" s="17">
+        <f t="shared" si="43"/>
         <v>272.13</v>
       </c>
-      <c r="U24" s="18">
-        <f t="shared" si="30"/>
+      <c r="Y24" s="17">
+        <f t="shared" si="43"/>
         <v>575.98500000000001</v>
       </c>
-      <c r="V24" s="18">
-        <f t="shared" si="30"/>
+      <c r="Z24" s="17">
+        <f t="shared" si="43"/>
         <v>1749.105</v>
       </c>
-      <c r="W24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AA24" s="17">
+        <f t="shared" si="43"/>
         <v>504.07499999999993</v>
       </c>
-      <c r="X24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AB24" s="17">
+        <f t="shared" si="43"/>
         <v>580.91999999999996</v>
       </c>
-      <c r="Y24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AC24" s="17">
+        <f t="shared" si="43"/>
         <v>664.11</v>
       </c>
-      <c r="Z24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AD24" s="17">
+        <f t="shared" si="43"/>
         <v>2022.645</v>
       </c>
-      <c r="AA24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AE24" s="17">
+        <f t="shared" si="43"/>
         <v>592.20000000000005</v>
       </c>
-      <c r="AB24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AF24" s="17">
+        <f t="shared" si="43"/>
         <v>604.18499999999995</v>
       </c>
-      <c r="AC24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AG24" s="17">
+        <f t="shared" si="43"/>
         <v>826.26</v>
       </c>
-      <c r="AD24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AH24" s="17">
+        <f t="shared" si="43"/>
         <v>2380.08</v>
       </c>
-      <c r="AE24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AI24" s="17">
+        <f t="shared" si="43"/>
         <v>615.46500000000003</v>
       </c>
-      <c r="AF24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AJ24" s="17">
+        <f t="shared" si="43"/>
         <v>719.80499999999995</v>
       </c>
-      <c r="AG24" s="18">
-        <f t="shared" si="30"/>
+      <c r="AK24" s="17">
+        <f t="shared" si="43"/>
         <v>1044.81</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -3739,70 +4035,79 @@
         <v>54</v>
       </c>
       <c r="L25" s="1">
-        <v>570052.75</v>
+        <v>805317.25</v>
       </c>
       <c r="M25" s="1">
+        <v>1485063.85</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="1">
         <v>1249799.3500000001</v>
       </c>
-      <c r="N25" s="1">
-        <v>84302.65</v>
-      </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="8" t="s">
+      <c r="R25" s="1">
+        <v>50739.15</v>
+      </c>
+      <c r="S25" s="35"/>
+      <c r="T25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="10">
-        <f>R25+V25+Z25+AD25</f>
-        <v>2466</v>
-      </c>
-      <c r="R25" s="10">
-        <f>SUM(S25:U25)</f>
+      <c r="U25" s="9">
+        <f>V25+Z25+AD25+AH25</f>
+        <v>2515.0100000000002</v>
+      </c>
+      <c r="V25" s="9">
+        <f>SUM(W25:Y25)</f>
         <v>1011</v>
       </c>
-      <c r="S25" s="10">
+      <c r="W25" s="9">
         <f>B48+B17</f>
         <v>64</v>
       </c>
-      <c r="T25" s="10">
+      <c r="X25" s="9">
         <f>D48+D17</f>
         <v>266</v>
       </c>
-      <c r="U25" s="10">
+      <c r="Y25" s="9">
         <f>F48+F17</f>
         <v>681</v>
       </c>
-      <c r="V25" s="10">
-        <f>SUM(W25:Y25)</f>
-        <v>1455</v>
-      </c>
-      <c r="W25" s="10">
+      <c r="Z25" s="9">
+        <f>SUM(AA25:AC25)</f>
+        <v>1504.01</v>
+      </c>
+      <c r="AA25" s="9">
         <f>H48+H17</f>
         <v>341</v>
       </c>
-      <c r="X25" s="10">
+      <c r="AB25" s="9">
         <f>J48+J17</f>
         <v>355</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="AC25" s="9">
         <f>L48+L17</f>
-        <v>759</v>
-      </c>
-      <c r="Z25" s="10">
-        <f>SUM(AA25:AC25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10">
+        <v>808.01</v>
+      </c>
+      <c r="AD25" s="9">
         <f>SUM(AE25:AG25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="11"/>
+      <c r="AE25" s="9">
+        <f>P48</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9">
+        <f>SUM(AI25:AK25)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="10"/>
     </row>
-    <row r="26" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -3842,83 +4147,89 @@
       <c r="M26" s="1">
         <v>1068910.5</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1068910.5</v>
+      </c>
+      <c r="R26" s="1">
         <v>65470</v>
       </c>
-      <c r="O26" s="34"/>
-      <c r="P26" s="14" t="s">
+      <c r="S26" s="35"/>
+      <c r="T26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" s="26">
-        <f>Q25/Q24</f>
-        <v>0.34978723404255319</v>
-      </c>
-      <c r="R26" s="26">
-        <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
+      <c r="U26" s="25">
+        <f>U25/U24</f>
+        <v>0.35673900709219863</v>
+      </c>
+      <c r="V26" s="25">
+        <f t="shared" ref="V26:AK26" si="44">V25/V24</f>
         <v>1.1256220982664751</v>
       </c>
-      <c r="S26" s="26">
-        <f t="shared" si="31"/>
+      <c r="W26" s="25">
+        <f t="shared" si="44"/>
         <v>1.278593547098192</v>
       </c>
-      <c r="T26" s="26">
-        <f t="shared" si="31"/>
+      <c r="X26" s="25">
+        <f t="shared" si="44"/>
         <v>0.9774740013963914</v>
       </c>
-      <c r="U26" s="26">
-        <f t="shared" si="31"/>
+      <c r="Y26" s="25">
+        <f t="shared" si="44"/>
         <v>1.1823224563139665</v>
       </c>
-      <c r="V26" s="26">
-        <f t="shared" si="31"/>
-        <v>0.83185400533415665</v>
-      </c>
-      <c r="W26" s="26">
-        <f t="shared" si="31"/>
+      <c r="Z26" s="25">
+        <f t="shared" si="44"/>
+        <v>0.85987404987121985</v>
+      </c>
+      <c r="AA26" s="25">
+        <f t="shared" si="44"/>
         <v>0.67648663393344255</v>
       </c>
-      <c r="X26" s="26">
-        <f t="shared" si="31"/>
+      <c r="AB26" s="25">
+        <f t="shared" si="44"/>
         <v>0.61109963506162646</v>
       </c>
-      <c r="Y26" s="26">
-        <f t="shared" si="31"/>
-        <v>1.1428829561367846</v>
-      </c>
-      <c r="Z26" s="26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="27">
-        <f t="shared" si="31"/>
+      <c r="AC26" s="25">
+        <f t="shared" si="44"/>
+        <v>1.2166809715258013</v>
+      </c>
+      <c r="AD26" s="25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="26">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,83 +4269,89 @@
       <c r="M27" s="1">
         <v>881552.8</v>
       </c>
-      <c r="N27" s="1">
-        <v>118663</v>
-      </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="8" t="s">
+      <c r="O27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>881552.8</v>
+      </c>
+      <c r="R27" s="1">
+        <v>134298</v>
+      </c>
+      <c r="S27" s="35"/>
+      <c r="T27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q27" s="10">
-        <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>4584</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
+      <c r="U27" s="9">
+        <f>ROUNDUP(U24-U25,0)</f>
+        <v>4535</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" ref="V27:AK27" si="45">ROUNDUP(V24-V25,0)</f>
         <v>-113</v>
       </c>
-      <c r="S27" s="10">
-        <f t="shared" si="32"/>
+      <c r="W27" s="9">
+        <f t="shared" si="45"/>
         <v>-14</v>
       </c>
-      <c r="T27" s="10">
-        <f t="shared" si="32"/>
+      <c r="X27" s="9">
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
-      <c r="U27" s="10">
-        <f t="shared" si="32"/>
+      <c r="Y27" s="9">
+        <f t="shared" si="45"/>
         <v>-106</v>
       </c>
-      <c r="V27" s="10">
-        <f t="shared" si="32"/>
-        <v>295</v>
-      </c>
-      <c r="W27" s="10">
-        <f t="shared" si="32"/>
+      <c r="Z27" s="9">
+        <f t="shared" si="45"/>
+        <v>246</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" si="45"/>
         <v>164</v>
       </c>
-      <c r="X27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AB27" s="9">
+        <f t="shared" si="45"/>
         <v>226</v>
       </c>
-      <c r="Y27" s="10">
-        <f t="shared" si="32"/>
-        <v>-95</v>
-      </c>
-      <c r="Z27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AC27" s="9">
+        <f t="shared" si="45"/>
+        <v>-144</v>
+      </c>
+      <c r="AD27" s="9">
+        <f t="shared" si="45"/>
         <v>2023</v>
       </c>
-      <c r="AA27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AE27" s="9">
+        <f t="shared" si="45"/>
         <v>593</v>
       </c>
-      <c r="AB27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AF27" s="9">
+        <f t="shared" si="45"/>
         <v>605</v>
       </c>
-      <c r="AC27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AG27" s="9">
+        <f t="shared" si="45"/>
         <v>827</v>
       </c>
-      <c r="AD27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AH27" s="9">
+        <f t="shared" si="45"/>
         <v>2381</v>
       </c>
-      <c r="AE27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AI27" s="9">
+        <f t="shared" si="45"/>
         <v>616</v>
       </c>
-      <c r="AF27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AJ27" s="9">
+        <f t="shared" si="45"/>
         <v>720</v>
       </c>
-      <c r="AG27" s="10">
-        <f t="shared" si="32"/>
+      <c r="AK27" s="9">
+        <f t="shared" si="45"/>
         <v>1045</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -4074,65 +4391,74 @@
       <c r="M28" s="1">
         <v>1130269</v>
       </c>
-      <c r="N28" s="1">
-        <v>55009</v>
-      </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="20" t="s">
+      <c r="O28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1130269</v>
+      </c>
+      <c r="R28" s="1">
+        <v>202115</v>
+      </c>
+      <c r="S28" s="36"/>
+      <c r="T28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="21">
-        <f>R28+V28+Z28+AD28</f>
-        <v>245</v>
-      </c>
-      <c r="R28" s="21">
-        <f>SUM(S28:U28)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
-        <f>S13+S18+S23</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="21">
-        <f t="shared" ref="T28:U28" si="33">T13+T18+T23</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="21">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="21">
+      <c r="U28" s="20">
+        <f>V28+Z28+AD28+AH28</f>
+        <v>237.95</v>
+      </c>
+      <c r="V28" s="20">
         <f>SUM(W28:Y28)</f>
-        <v>245</v>
-      </c>
-      <c r="W28" s="21">
+        <v>0</v>
+      </c>
+      <c r="W28" s="20">
         <f>W13+W18+W23</f>
         <v>0</v>
       </c>
-      <c r="X28" s="21">
-        <f t="shared" ref="X28" si="34">X13+X18+X23</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="21">
+      <c r="X28" s="20">
+        <f t="shared" ref="X28:Y28" si="46">X13+X18+X23</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="20">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="20">
+        <f>SUM(AA28:AC28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="20">
+        <f>AA13+AA18+AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="20">
+        <f t="shared" ref="AB28" si="47">AB13+AB18+AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="20">
         <f>N48+N17</f>
-        <v>245</v>
-      </c>
-      <c r="Z28" s="21">
-        <f>SUM(AA28:AC28)</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="20">
         <f>SUM(AE28:AG28)</f>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="22"/>
+        <v>237.95</v>
+      </c>
+      <c r="AE28" s="20">
+        <f>R48</f>
+        <v>237.95</v>
+      </c>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20">
+        <f>SUM(AI28:AK28)</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="21"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -4167,16 +4493,22 @@
         <v>58</v>
       </c>
       <c r="L29" s="1">
-        <v>140354</v>
+        <v>252807</v>
       </c>
       <c r="M29" s="1">
+        <v>695403</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="1">
         <v>582950</v>
       </c>
-      <c r="N29" s="1">
-        <v>343538</v>
+      <c r="R29" s="1">
+        <v>231085</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,16 +4543,22 @@
         <v>59</v>
       </c>
       <c r="L30" s="1">
-        <v>93302</v>
+        <v>213217</v>
       </c>
       <c r="M30" s="1">
+        <v>725714.2</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="1">
         <v>605799.19999999995</v>
       </c>
-      <c r="N30" s="1">
-        <v>119915</v>
+      <c r="R30" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,11 +4598,17 @@
       <c r="M31" s="1">
         <v>376300</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>376300</v>
+      </c>
+      <c r="R31" s="1">
         <v>14453</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -4299,16 +4643,22 @@
         <v>61</v>
       </c>
       <c r="L32" s="1">
-        <v>207665</v>
+        <v>220297</v>
       </c>
       <c r="M32" s="1">
+        <v>399678</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" s="1">
         <v>387046</v>
       </c>
-      <c r="N32" s="1">
-        <v>105772</v>
+      <c r="R32" s="1">
+        <v>93140</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -4349,46 +4699,67 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(L21:L32)</f>
-        <v>6041339.0099999998</v>
+        <v>6521603.5099999998</v>
       </c>
       <c r="M33" s="2">
         <f>SUM(M21:M32)</f>
-        <v>19423527.780000001</v>
+        <v>19903792.280000001</v>
       </c>
       <c r="N33" s="2">
         <f>SUM(N21:N32)</f>
-        <v>2387261.8899999997</v>
+        <v>0</v>
+      </c>
+      <c r="O33" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="28">
+        <f>SUM(P21:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="28">
+        <f>SUM(Q21:Q32)</f>
+        <v>19423527.780000001</v>
+      </c>
+      <c r="R33" s="28">
+        <f>SUM(R21:R32)</f>
+        <v>2379451.3899999997</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:18" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32" t="s">
+      <c r="H34" s="33"/>
+      <c r="I34" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="30" t="s">
+      <c r="J34" s="33"/>
+      <c r="K34" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -4431,8 +4802,20 @@
       <c r="N35" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="O35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -4472,665 +4855,843 @@
         <v>50</v>
       </c>
       <c r="L36" s="1">
-        <f>ROUNDDOWN(L21/10000,0)</f>
-        <v>405</v>
+        <f>ROUND(L21/10000,2)</f>
+        <v>405.43</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" ref="M36:N36" si="35">ROUNDDOWN(M21/10000,0)</f>
-        <v>1222</v>
+        <f t="shared" ref="M36:N36" si="48">ROUND(M21/10000,2)</f>
+        <v>1222.19</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="35"/>
-        <v>147</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P36" s="1">
+        <f>ROUND(P21/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" ref="Q36:R36" si="49">ROUND(Q21/10000,2)</f>
+        <v>1222.19</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="49"/>
+        <v>157.74</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ref="B37" si="36">ROUNDDOWN(B22/10000,0)</f>
+        <f t="shared" ref="B37" si="50">ROUNDDOWN(B22/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37" si="37">ROUNDDOWN(D22/10000,0)</f>
+        <f t="shared" ref="D37" si="51">ROUNDDOWN(D22/10000,0)</f>
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ref="F37:H37" si="38">ROUNDDOWN(F22/10000,0)</f>
+        <f t="shared" ref="F37:H37" si="52">ROUNDDOWN(F22/10000,0)</f>
         <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ref="J37:J48" si="39">ROUNDDOWN(J22/10000,0)</f>
+        <f t="shared" ref="J37:J48" si="53">ROUNDDOWN(J22/10000,0)</f>
         <v>8</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" ref="L37:N37" si="40">ROUNDDOWN(L22/10000,0)</f>
-        <v>27</v>
+        <f t="shared" ref="L37:N37" si="54">ROUND(L22/10000,2)</f>
+        <v>27.13</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="40"/>
-        <v>72</v>
+        <f t="shared" si="54"/>
+        <v>72.19</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" ref="P37:R37" si="55">ROUND(P22/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="55"/>
+        <v>72.19</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" ref="B38" si="41">ROUNDDOWN(B23/10000,0)</f>
+        <f t="shared" ref="B38" si="56">ROUNDDOWN(B23/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38" si="42">ROUNDDOWN(D23/10000,0)</f>
+        <f t="shared" ref="D38" si="57">ROUNDDOWN(D23/10000,0)</f>
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ref="F38:H38" si="43">ROUNDDOWN(F23/10000,0)</f>
+        <f t="shared" ref="F38:H38" si="58">ROUNDDOWN(F23/10000,0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" ref="L38:N38" si="44">ROUNDDOWN(L23/10000,0)</f>
-        <v>1</v>
+        <f t="shared" ref="L38:N38" si="59">ROUND(L23/10000,2)</f>
+        <v>1.68</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="44"/>
-        <v>6</v>
+        <f t="shared" si="59"/>
+        <v>6.31</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" ref="P38:R38" si="60">ROUND(P23/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="60"/>
+        <v>6.31</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="60"/>
+        <v>0.78</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" ref="B39" si="45">ROUNDDOWN(B24/10000,0)</f>
+        <f t="shared" ref="B39" si="61">ROUNDDOWN(B24/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39" si="46">ROUNDDOWN(D24/10000,0)</f>
+        <f t="shared" ref="D39" si="62">ROUNDDOWN(D24/10000,0)</f>
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:H39" si="47">ROUNDDOWN(F24/10000,0)</f>
+        <f t="shared" ref="F39:H39" si="63">ROUNDDOWN(F24/10000,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ref="L39:N39" si="48">ROUNDDOWN(L24/10000,0)</f>
+        <f t="shared" ref="L39:N39" si="64">ROUND(L24/10000,2)</f>
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="48"/>
-        <v>13</v>
+        <f t="shared" si="64"/>
+        <v>13.4</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" ref="P39:R39" si="65">ROUND(P24/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="65"/>
+        <v>13.4</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="65"/>
+        <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ref="B40" si="49">ROUNDDOWN(B25/10000,0)</f>
+        <f t="shared" ref="B40" si="66">ROUNDDOWN(B25/10000,0)</f>
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ref="D40" si="50">ROUNDDOWN(D25/10000,0)</f>
+        <f t="shared" ref="D40" si="67">ROUNDDOWN(D25/10000,0)</f>
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ref="F40:H40" si="51">ROUNDDOWN(F25/10000,0)</f>
+        <f t="shared" ref="F40:H40" si="68">ROUNDDOWN(F25/10000,0)</f>
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="68"/>
         <v>7</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>21</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" ref="L40:N40" si="52">ROUNDDOWN(L25/10000,0)</f>
-        <v>57</v>
+        <f t="shared" ref="L40:N40" si="69">ROUND(L25/10000,2)</f>
+        <v>80.53</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="52"/>
-        <v>124</v>
+        <f t="shared" si="69"/>
+        <v>148.51</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="52"/>
-        <v>8</v>
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" ref="P40:R40" si="70">ROUND(P25/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="70"/>
+        <v>124.98</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="70"/>
+        <v>5.07</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" ref="B41" si="53">ROUNDDOWN(B26/10000,0)</f>
+        <f t="shared" ref="B41" si="71">ROUNDDOWN(B26/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ref="D41" si="54">ROUNDDOWN(D26/10000,0)</f>
+        <f t="shared" ref="D41" si="72">ROUNDDOWN(D26/10000,0)</f>
         <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ref="F41:H41" si="55">ROUNDDOWN(F26/10000,0)</f>
+        <f t="shared" ref="F41:H41" si="73">ROUNDDOWN(F26/10000,0)</f>
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="73"/>
         <v>7</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" ref="L41:N41" si="56">ROUNDDOWN(L26/10000,0)</f>
-        <v>22</v>
+        <f t="shared" ref="L41:N41" si="74">ROUND(L26/10000,2)</f>
+        <v>22.09</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="56"/>
-        <v>106</v>
+        <f t="shared" si="74"/>
+        <v>106.89</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="56"/>
-        <v>6</v>
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" ref="P41:R41" si="75">ROUND(P26/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="75"/>
+        <v>106.89</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="75"/>
+        <v>6.55</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" ref="B42" si="57">ROUNDDOWN(B27/10000,0)</f>
+        <f t="shared" ref="B42" si="76">ROUNDDOWN(B27/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42" si="58">ROUNDDOWN(D27/10000,0)</f>
+        <f t="shared" ref="D42" si="77">ROUNDDOWN(D27/10000,0)</f>
         <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ref="F42:H42" si="59">ROUNDDOWN(F27/10000,0)</f>
+        <f t="shared" ref="F42:H42" si="78">ROUNDDOWN(F27/10000,0)</f>
         <v>21</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>17</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" ref="L42:N42" si="60">ROUNDDOWN(L27/10000,0)</f>
-        <v>20</v>
+        <f t="shared" ref="L42:N42" si="79">ROUND(L27/10000,2)</f>
+        <v>20.41</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="60"/>
-        <v>88</v>
+        <f t="shared" si="79"/>
+        <v>88.16</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="60"/>
-        <v>11</v>
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" ref="P42:R42" si="80">ROUND(P27/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="80"/>
+        <v>88.16</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="80"/>
+        <v>13.43</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43" si="61">ROUNDDOWN(B28/10000,0)</f>
+        <f t="shared" ref="B43" si="81">ROUNDDOWN(B28/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ref="D43" si="62">ROUNDDOWN(D28/10000,0)</f>
+        <f t="shared" ref="D43" si="82">ROUNDDOWN(D28/10000,0)</f>
         <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ref="F43:H43" si="63">ROUNDDOWN(F28/10000,0)</f>
+        <f t="shared" ref="F43:H43" si="83">ROUNDDOWN(F28/10000,0)</f>
         <v>28</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>37</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" ref="L43:N43" si="64">ROUNDDOWN(L28/10000,0)</f>
-        <v>13</v>
+        <f t="shared" ref="L43:N43" si="84">ROUND(L28/10000,2)</f>
+        <v>13.94</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="64"/>
-        <v>113</v>
+        <f t="shared" si="84"/>
+        <v>113.03</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="64"/>
-        <v>5</v>
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" ref="P43:R43" si="85">ROUND(P28/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="85"/>
+        <v>113.03</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="85"/>
+        <v>20.21</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ref="B44" si="65">ROUNDDOWN(B29/10000,0)</f>
+        <f t="shared" ref="B44" si="86">ROUNDDOWN(B29/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ref="D44" si="66">ROUNDDOWN(D29/10000,0)</f>
+        <f t="shared" ref="D44" si="87">ROUNDDOWN(D29/10000,0)</f>
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ref="F44:H44" si="67">ROUNDDOWN(F29/10000,0)</f>
+        <f t="shared" ref="F44:H44" si="88">ROUNDDOWN(F29/10000,0)</f>
         <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="88"/>
         <v>25</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" ref="L44:N44" si="68">ROUNDDOWN(L29/10000,0)</f>
-        <v>14</v>
+        <f t="shared" ref="L44:N44" si="89">ROUND(L29/10000,2)</f>
+        <v>25.28</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="89"/>
+        <v>69.540000000000006</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="1">
-        <f t="shared" si="68"/>
-        <v>34</v>
+      <c r="P44" s="1">
+        <f t="shared" ref="P44:R44" si="90">ROUND(P29/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="90"/>
+        <v>58.3</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="90"/>
+        <v>23.11</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ref="B45" si="69">ROUNDDOWN(B30/10000,0)</f>
+        <f t="shared" ref="B45" si="91">ROUNDDOWN(B30/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ref="D45" si="70">ROUNDDOWN(D30/10000,0)</f>
+        <f t="shared" ref="D45" si="92">ROUNDDOWN(D30/10000,0)</f>
         <v>34</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:H45" si="71">ROUNDDOWN(F30/10000,0)</f>
+        <f t="shared" ref="F45:H45" si="93">ROUNDDOWN(F30/10000,0)</f>
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="93"/>
         <v>8</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" ref="L45:N45" si="72">ROUNDDOWN(L30/10000,0)</f>
-        <v>9</v>
+        <f t="shared" ref="L45:N45" si="94">ROUND(L30/10000,2)</f>
+        <v>21.32</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="72"/>
-        <v>60</v>
+        <f t="shared" si="94"/>
+        <v>72.569999999999993</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="72"/>
-        <v>11</v>
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" ref="P45:R45" si="95">ROUND(P30/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="95"/>
+        <v>60.58</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ref="B46" si="73">ROUNDDOWN(B31/10000,0)</f>
+        <f t="shared" ref="B46" si="96">ROUNDDOWN(B31/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ref="D46" si="74">ROUNDDOWN(D31/10000,0)</f>
+        <f t="shared" ref="D46" si="97">ROUNDDOWN(D31/10000,0)</f>
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:H46" si="75">ROUNDDOWN(F31/10000,0)</f>
+        <f t="shared" ref="F46:H46" si="98">ROUNDDOWN(F31/10000,0)</f>
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" ref="L46:N46" si="76">ROUNDDOWN(L31/10000,0)</f>
-        <v>12</v>
+        <f t="shared" ref="L46:N46" si="99">ROUND(L31/10000,2)</f>
+        <v>12.32</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="76"/>
-        <v>37</v>
+        <f t="shared" si="99"/>
+        <v>37.630000000000003</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="76"/>
-        <v>1</v>
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" ref="P46:R46" si="100">ROUND(P31/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="100"/>
+        <v>37.630000000000003</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="100"/>
+        <v>1.45</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ref="B47" si="77">ROUNDDOWN(B32/10000,0)</f>
+        <f t="shared" ref="B47" si="101">ROUNDDOWN(B32/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ref="D47" si="78">ROUNDDOWN(D32/10000,0)</f>
+        <f t="shared" ref="D47" si="102">ROUNDDOWN(D32/10000,0)</f>
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ref="F47:H47" si="79">ROUNDDOWN(F32/10000,0)</f>
+        <f t="shared" ref="F47:H47" si="103">ROUNDDOWN(F32/10000,0)</f>
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" ref="L47:N47" si="80">ROUNDDOWN(L32/10000,0)</f>
-        <v>20</v>
+        <f t="shared" ref="L47:N48" si="104">ROUND(L32/10000,2)</f>
+        <v>22.03</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="80"/>
-        <v>38</v>
+        <f t="shared" si="104"/>
+        <v>39.97</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="80"/>
-        <v>10</v>
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" ref="P47:R47" si="105">ROUND(P32/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="105"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="105"/>
+        <v>9.31</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" ref="B48" si="81">ROUNDDOWN(B33/10000,0)</f>
+        <f t="shared" ref="B48" si="106">ROUNDDOWN(B33/10000,0)</f>
         <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" ref="D48" si="82">ROUNDDOWN(D33/10000,0)</f>
+        <f t="shared" ref="D48" si="107">ROUNDDOWN(D33/10000,0)</f>
         <v>221</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" ref="F48:H48" si="83">ROUNDDOWN(F33/10000,0)</f>
+        <f t="shared" ref="F48:H48" si="108">ROUNDDOWN(F33/10000,0)</f>
         <v>517</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="108"/>
         <v>288</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>252</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="2">
-        <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
-        <v>604</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="84"/>
-        <v>1942</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="84"/>
-        <v>238</v>
+      <c r="L48" s="28">
+        <f>ROUND(L33/10000,2)</f>
+        <v>652.16</v>
+      </c>
+      <c r="M48" s="28">
+        <f t="shared" si="104"/>
+        <v>1990.38</v>
+      </c>
+      <c r="N48" s="28">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" s="28">
+        <f t="shared" ref="P48:R48" si="109">ROUND(P33/10000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="28">
+        <f t="shared" si="109"/>
+        <v>1942.35</v>
+      </c>
+      <c r="R48" s="28">
+        <f t="shared" si="109"/>
+        <v>237.95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:AG1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
+  <mergeCells count="37">
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A19:B19"/>
@@ -5143,9 +5704,30 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="P4:AG28">
+  <conditionalFormatting sqref="T4:AK28">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DCC61-E3BF-4F14-BD0E-568CB69B4312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198663E-DD68-440B-A2C6-044C6C234D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="500" windowWidth="20190" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="380" windowWidth="20190" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -730,13 +730,25 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -760,10 +772,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,20 +781,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="AH4" activeCellId="1" sqref="AD4 AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1144,69 +1144,69 @@
     <col min="27" max="29" width="7.08203125" style="1" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="8.25" style="1" customWidth="1"/>
     <col min="31" max="31" width="5.9140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.08203125" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="8.25" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="7.08203125" style="1" hidden="1" customWidth="1"/>
-    <col min="36" max="37" width="8.25" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="7.08203125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="8.25" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.08203125" style="1" customWidth="1"/>
+    <col min="36" max="37" width="8.25" style="1" customWidth="1"/>
     <col min="38" max="39" width="8.6640625" style="1"/>
     <col min="40" max="40" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="30" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="37" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="39"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1266,10 +1266,10 @@
       <c r="S2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="47" t="s">
         <v>8</v>
       </c>
       <c r="V2" s="29" t="s">
@@ -1372,9 +1372,9 @@
       <c r="R3" s="3">
         <v>210149</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="48"/>
       <c r="V3" s="23">
         <v>0.12740000000000001</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="38" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="16" t="s">
@@ -1600,7 +1600,7 @@
       <c r="R5" s="3">
         <v>0</v>
       </c>
-      <c r="S5" s="35"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="7" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="R6" s="3">
         <v>30086</v>
       </c>
-      <c r="S6" s="35"/>
+      <c r="S6" s="39"/>
       <c r="T6" s="24" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="R7" s="3">
         <v>34000</v>
       </c>
-      <c r="S7" s="35"/>
+      <c r="S7" s="39"/>
       <c r="T7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1966,7 +1966,7 @@
         <f>SUM(R3:R7)</f>
         <v>274235</v>
       </c>
-      <c r="S8" s="36"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="19" t="s">
         <v>47</v>
       </c>
@@ -2085,7 +2085,7 @@
         <f t="array" ref="R9">SUM(SUMIFS(R3:R7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
         <v>244149</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="38" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="16" t="s">
@@ -2160,39 +2160,39 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32" t="s">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="35"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="39"/>
       <c r="T10" s="7" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="R11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="35"/>
+      <c r="S11" s="39"/>
       <c r="T11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2414,34 +2414,34 @@
       <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="30">
         <f>ROUND(L3/10000,2)</f>
         <v>45.44</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="30">
         <f t="shared" ref="M12:N12" si="8">ROUND(M3/10000,2)</f>
         <v>281.62</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="30">
         <f>ROUND(P3/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="30">
         <f t="shared" ref="Q12:R12" si="9">ROUND(Q3/10000,2)</f>
         <v>281.62</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="30">
         <f t="shared" si="9"/>
         <v>21.01</v>
       </c>
-      <c r="S12" s="35"/>
+      <c r="S12" s="39"/>
       <c r="T12" s="7" t="s">
         <v>39</v>
       </c>
@@ -2553,34 +2553,34 @@
       <c r="K13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="31">
         <f t="shared" ref="L13:N13" si="13">ROUND(L4/10000,2)</f>
         <v>45.15</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="31">
         <f t="shared" si="13"/>
         <v>60.2</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="31">
         <f t="shared" ref="P13:R13" si="14">ROUND(P4/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="31">
         <f t="shared" si="14"/>
         <v>60.2</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="31">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S13" s="36"/>
+      <c r="S13" s="40"/>
       <c r="T13" s="19" t="s">
         <v>47</v>
       </c>
@@ -2672,34 +2672,34 @@
       <c r="K14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="30">
         <f t="shared" ref="L14:N14" si="17">ROUND(L5/10000,2)</f>
         <v>3.32</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="30">
         <f t="shared" si="17"/>
         <v>30.79</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="30">
         <f t="shared" ref="P14:R14" si="18">ROUND(P5/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="30">
         <f t="shared" si="18"/>
         <v>30.79</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S14" s="34" t="s">
+      <c r="S14" s="38" t="s">
         <v>2</v>
       </c>
       <c r="T14" s="16" t="s">
@@ -2812,34 +2812,34 @@
       <c r="K15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="31">
         <f t="shared" ref="L15:N15" si="22">ROUND(L6/10000,2)</f>
         <v>28.43</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="31">
         <f t="shared" si="22"/>
         <v>60.88</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O15" s="46" t="s">
+      <c r="O15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="31">
         <f t="shared" ref="P15:R15" si="23">ROUND(P6/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="31">
         <f t="shared" si="23"/>
         <v>60.88</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="31">
         <f t="shared" si="23"/>
         <v>3.01</v>
       </c>
-      <c r="S15" s="35"/>
+      <c r="S15" s="39"/>
       <c r="T15" s="7" t="s">
         <v>37</v>
       </c>
@@ -2932,34 +2932,34 @@
       <c r="K16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="30">
         <f t="shared" ref="L16:N16" si="26">ROUND(L7/10000,2)</f>
         <v>33.51</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="30">
         <f t="shared" si="26"/>
         <v>95.74</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="30">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="30">
         <f t="shared" ref="P16:R16" si="27">ROUND(P7/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="30">
         <f t="shared" si="27"/>
         <v>95.74</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="30">
         <f t="shared" si="27"/>
         <v>3.4</v>
       </c>
-      <c r="S16" s="35"/>
+      <c r="S16" s="39"/>
       <c r="T16" s="13" t="s">
         <v>38</v>
       </c>
@@ -3071,34 +3071,34 @@
       <c r="K17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="30">
         <f t="shared" ref="L17:N17" si="31">ROUND(L8/10000,2)</f>
         <v>155.85</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="30">
         <f t="shared" si="31"/>
         <v>529.24</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="30">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="O17" s="47" t="s">
+      <c r="O17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="30">
         <f t="shared" ref="P17:R17" si="32">ROUND(P8/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="30">
         <f t="shared" si="32"/>
         <v>529.24</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="30">
         <f t="shared" si="32"/>
         <v>27.42</v>
       </c>
-      <c r="S17" s="35"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="7" t="s">
         <v>39</v>
       </c>
@@ -3210,34 +3210,34 @@
       <c r="K18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="31">
         <f t="shared" ref="L18:N18" si="36">ROUND(L9/10000,2)</f>
         <v>82.27</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="31">
         <f t="shared" si="36"/>
         <v>408.15</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="31">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O18" s="48" t="s">
+      <c r="O18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="31">
         <f t="shared" ref="P18:R18" si="37">ROUND(P9/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="31">
         <f t="shared" si="37"/>
         <v>408.15</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="31">
         <f t="shared" si="37"/>
         <v>24.41</v>
       </c>
-      <c r="S18" s="36"/>
+      <c r="S18" s="40"/>
       <c r="T18" s="19" t="s">
         <v>47</v>
       </c>
@@ -3291,39 +3291,39 @@
       <c r="AK18" s="21"/>
     </row>
     <row r="19" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33" t="s">
+      <c r="H19" s="37"/>
+      <c r="I19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31" t="s">
+      <c r="J19" s="37"/>
+      <c r="K19" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="34" t="s">
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="38" t="s">
         <v>41</v>
       </c>
       <c r="T19" s="16" t="s">
@@ -3453,7 +3453,7 @@
       <c r="R20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="39"/>
       <c r="T20" s="7" t="s">
         <v>37</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="R21" s="1">
         <v>1577426.24</v>
       </c>
-      <c r="S21" s="35"/>
+      <c r="S21" s="39"/>
       <c r="T21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="35"/>
+      <c r="S22" s="39"/>
       <c r="T22" s="7" t="s">
         <v>39</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="R23" s="1">
         <v>7797</v>
       </c>
-      <c r="S23" s="36"/>
+      <c r="S23" s="40"/>
       <c r="T23" s="19" t="s">
         <v>47</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="R24" s="1">
         <v>2928</v>
       </c>
-      <c r="S24" s="34" t="s">
+      <c r="S24" s="38" t="s">
         <v>49</v>
       </c>
       <c r="T24" s="16" t="s">
@@ -4049,7 +4049,7 @@
       <c r="R25" s="1">
         <v>50739.15</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="39"/>
       <c r="T25" s="7" t="s">
         <v>37</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="R26" s="1">
         <v>65470</v>
       </c>
-      <c r="S26" s="35"/>
+      <c r="S26" s="39"/>
       <c r="T26" s="13" t="s">
         <v>38</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="R27" s="1">
         <v>134298</v>
       </c>
-      <c r="S27" s="35"/>
+      <c r="S27" s="39"/>
       <c r="T27" s="7" t="s">
         <v>39</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="R28" s="1">
         <v>202115</v>
       </c>
-      <c r="S28" s="36"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="19" t="s">
         <v>47</v>
       </c>
@@ -4726,38 +4726,38 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33" t="s">
+      <c r="H34" s="37"/>
+      <c r="I34" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="31" t="s">
+      <c r="J34" s="37"/>
+      <c r="K34" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -5688,6 +5688,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="O34:R34"/>
@@ -5704,27 +5725,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T4:AK28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198663E-DD68-440B-A2C6-044C6C234D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A82A09-5BC4-4F72-ABE7-34957FE90718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="380" windowWidth="20190" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -641,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,12 +724,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,13 +736,13 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1119,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="AH4" activeCellId="1" sqref="AD4 AH4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1154,59 +1148,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="41" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="43"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1263,16 +1257,16 @@
       <c r="R2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="W2" s="11" t="s">
@@ -1296,7 +1290,7 @@
       <c r="AC2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="AE2" s="11" t="s">
@@ -1365,16 +1359,18 @@
       <c r="O3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3">
+        <v>111011</v>
+      </c>
       <c r="Q3" s="3">
-        <v>2816242.95</v>
+        <v>2927253.95</v>
       </c>
       <c r="R3" s="3">
-        <v>210149</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="48"/>
+        <v>174023</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="46"/>
       <c r="V3" s="23">
         <v>0.12740000000000001</v>
       </c>
@@ -1468,14 +1464,16 @@
       <c r="O4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
       <c r="Q4" s="3">
         <v>602049.9</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="36" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="16" t="s">
@@ -1593,20 +1591,22 @@
       <c r="O5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
       <c r="Q5" s="3">
         <v>307904</v>
       </c>
       <c r="R5" s="3">
         <v>0</v>
       </c>
-      <c r="S5" s="39"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="U5" s="9">
         <f>V5+Z5+AD5+AH5</f>
-        <v>407.34909499999998</v>
+        <v>420.829095</v>
       </c>
       <c r="V5" s="9">
         <f>SUM(W5:Y5)</f>
@@ -1639,11 +1639,11 @@
       </c>
       <c r="AD5" s="9">
         <f>SUM(AE5:AG5)</f>
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="AE5" s="9">
         <f>P18</f>
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -1699,20 +1699,22 @@
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3">
+        <v>41157</v>
+      </c>
       <c r="Q6" s="3">
-        <v>608778</v>
+        <v>649935</v>
       </c>
       <c r="R6" s="3">
-        <v>30086</v>
-      </c>
-      <c r="S6" s="39"/>
+        <v>2850</v>
+      </c>
+      <c r="S6" s="37"/>
       <c r="T6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="25">
         <f>U5/U4</f>
-        <v>0.46607447940503433</v>
+        <v>0.4814978203661327</v>
       </c>
       <c r="V6" s="25">
         <f t="shared" ref="V6:AK6" si="1">V5/V4</f>
@@ -1748,11 +1750,11 @@
       </c>
       <c r="AD6" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3758595193790171E-2</v>
       </c>
       <c r="AE6" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18361120191783806</v>
       </c>
       <c r="AF6" s="25">
         <f t="shared" si="1"/>
@@ -1823,20 +1825,22 @@
       <c r="O7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <v>23824</v>
+      </c>
       <c r="Q7" s="3">
-        <v>957384</v>
+        <v>981208</v>
       </c>
       <c r="R7" s="3">
-        <v>34000</v>
-      </c>
-      <c r="S7" s="39"/>
+        <v>71734</v>
+      </c>
+      <c r="S7" s="37"/>
       <c r="T7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="U7" s="9">
         <f>ROUNDUP(U4-U5,0)</f>
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" ref="V7:AK7" si="2">ROUNDUP(V4-V5,0)</f>
@@ -1872,11 +1876,11 @@
       </c>
       <c r="AD7" s="9">
         <f t="shared" si="2"/>
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" si="2"/>
@@ -1951,28 +1955,28 @@
         <v>5292358.8499999996</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P8" s="4">
         <f>SUM(P3:P7)</f>
-        <v>0</v>
+        <v>175992</v>
       </c>
       <c r="Q8" s="4">
         <f>SUM(Q3:Q7)</f>
-        <v>5292358.8499999996</v>
+        <v>5468350.8499999996</v>
       </c>
       <c r="R8" s="4">
         <f>SUM(R3:R7)</f>
-        <v>274235</v>
-      </c>
-      <c r="S8" s="40"/>
+        <v>248607</v>
+      </c>
+      <c r="S8" s="38"/>
       <c r="T8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="U8" s="20">
         <f>V8+Z8+AD8+AH8</f>
-        <v>24.41</v>
+        <v>24.58</v>
       </c>
       <c r="V8" s="20">
         <f>SUM(W8:Y8)</f>
@@ -2003,11 +2007,11 @@
       </c>
       <c r="AD8" s="20">
         <f>SUM(AE8:AG8)</f>
-        <v>24.41</v>
+        <v>24.58</v>
       </c>
       <c r="AE8" s="20">
         <f>R18</f>
-        <v>24.41</v>
+        <v>24.58</v>
       </c>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
@@ -2075,17 +2079,17 @@
       </c>
       <c r="P9" s="4" cm="1">
         <f t="array" ref="P9">SUM(SUMIFS(P3:P7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>0</v>
+        <v>134835</v>
       </c>
       <c r="Q9" s="4" cm="1">
         <f t="array" ref="Q9">SUM(SUMIFS(Q3:Q7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>4081530.95</v>
+        <v>4216365.95</v>
       </c>
       <c r="R9" s="4" cm="1">
         <f t="array" ref="R9">SUM(SUMIFS(R3:R7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>244149</v>
-      </c>
-      <c r="S9" s="38" t="s">
+        <v>245757</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="16" t="s">
@@ -2192,7 +2196,7 @@
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="39"/>
+      <c r="S10" s="37"/>
       <c r="T10" s="7" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2306,7 @@
       <c r="R11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="39"/>
+      <c r="S11" s="37"/>
       <c r="T11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2414,34 +2418,34 @@
       <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="28">
         <f>ROUND(L3/10000,2)</f>
         <v>45.44</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="28">
         <f t="shared" ref="M12:N12" si="8">ROUND(M3/10000,2)</f>
         <v>281.62</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="28">
         <f>ROUND(P3/10000,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30">
+        <v>11.1</v>
+      </c>
+      <c r="Q12" s="28">
         <f t="shared" ref="Q12:R12" si="9">ROUND(Q3/10000,2)</f>
-        <v>281.62</v>
-      </c>
-      <c r="R12" s="30">
+        <v>292.73</v>
+      </c>
+      <c r="R12" s="28">
         <f t="shared" si="9"/>
-        <v>21.01</v>
-      </c>
-      <c r="S12" s="39"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S12" s="37"/>
       <c r="T12" s="7" t="s">
         <v>39</v>
       </c>
@@ -2553,34 +2557,34 @@
       <c r="K13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="29">
         <f t="shared" ref="L13:N13" si="13">ROUND(L4/10000,2)</f>
         <v>45.15</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="29">
         <f t="shared" si="13"/>
         <v>60.2</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="29">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="29">
         <f t="shared" ref="P13:R13" si="14">ROUND(P4/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="29">
         <f t="shared" si="14"/>
         <v>60.2</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="29">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S13" s="40"/>
+      <c r="S13" s="38"/>
       <c r="T13" s="19" t="s">
         <v>47</v>
       </c>
@@ -2672,34 +2676,34 @@
       <c r="K14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="28">
         <f t="shared" ref="L14:N14" si="17">ROUND(L5/10000,2)</f>
         <v>3.32</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="28">
         <f t="shared" si="17"/>
         <v>30.79</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="O14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="28">
         <f t="shared" ref="P14:R14" si="18">ROUND(P5/10000,2)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="28">
         <f t="shared" si="18"/>
         <v>30.79</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="36" t="s">
         <v>2</v>
       </c>
       <c r="T14" s="16" t="s">
@@ -2812,40 +2816,40 @@
       <c r="K15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="29">
         <f t="shared" ref="L15:N15" si="22">ROUND(L6/10000,2)</f>
         <v>28.43</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="29">
         <f t="shared" si="22"/>
         <v>60.88</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="29">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="29">
         <f t="shared" ref="P15:R15" si="23">ROUND(P6/10000,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="31">
+        <v>4.12</v>
+      </c>
+      <c r="Q15" s="29">
         <f t="shared" si="23"/>
-        <v>60.88</v>
-      </c>
-      <c r="R15" s="31">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="R15" s="29">
         <f t="shared" si="23"/>
-        <v>3.01</v>
-      </c>
-      <c r="S15" s="39"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S15" s="37"/>
       <c r="T15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="U15" s="9">
         <f>V15+Z15+AD15+AH15</f>
-        <v>59.976699999999994</v>
+        <v>64.096699999999998</v>
       </c>
       <c r="V15" s="9">
         <f>SUM(W15:Y15)</f>
@@ -2877,11 +2881,11 @@
       </c>
       <c r="AD15" s="9">
         <f>SUM(AE15:AG15)</f>
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AE15" s="9">
         <f>P15</f>
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -2932,40 +2936,40 @@
       <c r="K16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="28">
         <f t="shared" ref="L16:N16" si="26">ROUND(L7/10000,2)</f>
         <v>33.51</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="28">
         <f t="shared" si="26"/>
         <v>95.74</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="O16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="28">
         <f t="shared" ref="P16:R16" si="27">ROUND(P7/10000,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="30">
+        <v>2.38</v>
+      </c>
+      <c r="Q16" s="28">
         <f t="shared" si="27"/>
-        <v>95.74</v>
-      </c>
-      <c r="R16" s="30">
+        <v>98.12</v>
+      </c>
+      <c r="R16" s="28">
         <f t="shared" si="27"/>
-        <v>3.4</v>
-      </c>
-      <c r="S16" s="39"/>
+        <v>7.17</v>
+      </c>
+      <c r="S16" s="37"/>
       <c r="T16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="U16" s="25">
         <f>U15/U14</f>
-        <v>0.3407767045454545</v>
+        <v>0.36418579545454544</v>
       </c>
       <c r="V16" s="25">
         <f t="shared" ref="V16:AK16" si="28">V15/V14</f>
@@ -3001,11 +3005,11 @@
       </c>
       <c r="AD16" s="25">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8.1593206375360439E-2</v>
       </c>
       <c r="AE16" s="25">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.27867965367965369</v>
       </c>
       <c r="AF16" s="25">
         <f t="shared" si="28"/>
@@ -3071,40 +3075,40 @@
       <c r="K17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="28">
         <f t="shared" ref="L17:N17" si="31">ROUND(L8/10000,2)</f>
         <v>155.85</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="28">
         <f t="shared" si="31"/>
         <v>529.24</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="28">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="28">
         <f t="shared" ref="P17:R17" si="32">ROUND(P8/10000,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="30">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q17" s="28">
         <f t="shared" si="32"/>
-        <v>529.24</v>
-      </c>
-      <c r="R17" s="30">
+        <v>546.84</v>
+      </c>
+      <c r="R17" s="28">
         <f t="shared" si="32"/>
-        <v>27.42</v>
-      </c>
-      <c r="S17" s="39"/>
+        <v>24.86</v>
+      </c>
+      <c r="S17" s="37"/>
       <c r="T17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U17" s="9">
         <f>ROUNDUP(U14-U15,0)</f>
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" ref="V17:AK17" si="33">ROUNDUP(V14-V15,0)</f>
@@ -3140,11 +3144,11 @@
       </c>
       <c r="AD17" s="9">
         <f t="shared" si="33"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF17" s="9">
         <f t="shared" si="33"/>
@@ -3210,40 +3214,40 @@
       <c r="K18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="29">
         <f t="shared" ref="L18:N18" si="36">ROUND(L9/10000,2)</f>
         <v>82.27</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="29">
         <f t="shared" si="36"/>
         <v>408.15</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="29">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="29">
         <f t="shared" ref="P18:R18" si="37">ROUND(P9/10000,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="31">
+        <v>13.48</v>
+      </c>
+      <c r="Q18" s="29">
         <f t="shared" si="37"/>
-        <v>408.15</v>
-      </c>
-      <c r="R18" s="31">
+        <v>421.64</v>
+      </c>
+      <c r="R18" s="29">
         <f t="shared" si="37"/>
-        <v>24.41</v>
-      </c>
-      <c r="S18" s="40"/>
+        <v>24.58</v>
+      </c>
+      <c r="S18" s="38"/>
       <c r="T18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="U18" s="20">
         <f>V18+Z18+AD18+AH18</f>
-        <v>3.01</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V18" s="20">
         <f>SUM(W18:Y18)</f>
@@ -3274,11 +3278,11 @@
       </c>
       <c r="AD18" s="20">
         <f>SUM(AE18:AG18)</f>
-        <v>3.01</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AE18" s="20">
         <f>R15</f>
-        <v>3.01</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
@@ -3291,39 +3295,39 @@
       <c r="AK18" s="21"/>
     </row>
     <row r="19" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="35" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35" t="s">
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="38" t="s">
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="36" t="s">
         <v>41</v>
       </c>
       <c r="T19" s="16" t="s">
@@ -3453,13 +3457,13 @@
       <c r="R20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="39"/>
+      <c r="S20" s="37"/>
       <c r="T20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="U20" s="9">
         <f>U15+U10+U5</f>
-        <v>526.98477500000001</v>
+        <v>544.58477500000004</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="38"/>
@@ -3495,11 +3499,11 @@
       </c>
       <c r="AD20" s="9">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AF20" s="9">
         <f t="shared" si="38"/>
@@ -3569,19 +3573,22 @@
       <c r="O21" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="P21" s="1">
+        <v>236353.24</v>
+      </c>
       <c r="Q21" s="1">
-        <v>12221894.060000001</v>
+        <v>12458247.300000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1577426.24</v>
-      </c>
-      <c r="S21" s="39"/>
+        <v>1727894</v>
+      </c>
+      <c r="S21" s="37"/>
       <c r="T21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="U21" s="25">
         <f>U20/U19</f>
-        <v>0.43915397916666665</v>
+        <v>0.45382064583333337</v>
       </c>
       <c r="V21" s="25">
         <f t="shared" ref="V21:AK21" si="39">V20/V19</f>
@@ -3617,11 +3624,11 @@
       </c>
       <c r="AD21" s="25">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>5.1121180434530039E-2</v>
       </c>
       <c r="AE21" s="25">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="AF21" s="25">
         <f t="shared" si="39"/>
@@ -3691,19 +3698,22 @@
       <c r="O22" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
       <c r="Q22" s="1">
         <v>721909.47</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="39"/>
+        <v>77880</v>
+      </c>
+      <c r="S22" s="37"/>
       <c r="T22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U22" s="9">
         <f>ROUNDUP(U19-U20,0)</f>
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" ref="V22:AK22" si="40">ROUNDUP(V19-V20,0)</f>
@@ -3739,11 +3749,11 @@
       </c>
       <c r="AD22" s="9">
         <f t="shared" si="40"/>
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="40"/>
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="AF22" s="9">
         <f t="shared" si="40"/>
@@ -3813,19 +3823,22 @@
       <c r="O23" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="P23" s="1">
+        <v>8256</v>
+      </c>
       <c r="Q23" s="1">
-        <v>63084.4</v>
+        <v>71340.399999999994</v>
       </c>
       <c r="R23" s="1">
-        <v>7797</v>
-      </c>
-      <c r="S23" s="40"/>
+        <v>4509</v>
+      </c>
+      <c r="S23" s="38"/>
       <c r="T23" s="19" t="s">
         <v>47</v>
       </c>
       <c r="U23" s="20">
         <f>U8+U13+U18</f>
-        <v>27.42</v>
+        <v>24.869999999999997</v>
       </c>
       <c r="V23" s="20">
         <f>SUM(W23:Y23)</f>
@@ -3861,11 +3874,11 @@
       </c>
       <c r="AD23" s="20">
         <f>SUM(AE23:AG23)</f>
-        <v>27.42</v>
+        <v>24.869999999999997</v>
       </c>
       <c r="AE23" s="20">
         <f>R18+R13+R15</f>
-        <v>27.42</v>
+        <v>24.869999999999997</v>
       </c>
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
@@ -3920,13 +3933,16 @@
       <c r="O24" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="P24" s="1">
+        <v>2928</v>
+      </c>
       <c r="Q24" s="1">
-        <v>134013</v>
+        <v>136941</v>
       </c>
       <c r="R24" s="1">
-        <v>2928</v>
-      </c>
-      <c r="S24" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="36" t="s">
         <v>49</v>
       </c>
       <c r="T24" s="16" t="s">
@@ -4043,19 +4059,22 @@
       <c r="O25" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="P25" s="1">
+        <v>1080</v>
+      </c>
       <c r="Q25" s="1">
-        <v>1249799.3500000001</v>
+        <v>1486143.85</v>
       </c>
       <c r="R25" s="1">
-        <v>50739.15</v>
-      </c>
-      <c r="S25" s="39"/>
+        <v>137183.15</v>
+      </c>
+      <c r="S25" s="37"/>
       <c r="T25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="U25" s="9">
         <f>V25+Z25+AD25+AH25</f>
-        <v>2515.0100000000002</v>
+        <v>2585.23</v>
       </c>
       <c r="V25" s="9">
         <f>SUM(W25:Y25)</f>
@@ -4091,11 +4110,11 @@
       </c>
       <c r="AD25" s="9">
         <f>SUM(AE25:AG25)</f>
-        <v>0</v>
+        <v>70.22</v>
       </c>
       <c r="AE25" s="9">
         <f>P48</f>
-        <v>0</v>
+        <v>70.22</v>
       </c>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -4150,19 +4169,22 @@
       <c r="O26" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="P26" s="1">
+        <v>36022</v>
+      </c>
       <c r="Q26" s="1">
-        <v>1068910.5</v>
+        <v>1104932.5</v>
       </c>
       <c r="R26" s="1">
-        <v>65470</v>
-      </c>
-      <c r="S26" s="39"/>
+        <v>34008</v>
+      </c>
+      <c r="S26" s="37"/>
       <c r="T26" s="13" t="s">
         <v>38</v>
       </c>
       <c r="U26" s="25">
         <f>U25/U24</f>
-        <v>0.35673900709219863</v>
+        <v>0.36669929078014185</v>
       </c>
       <c r="V26" s="25">
         <f t="shared" ref="V26:AK26" si="44">V25/V24</f>
@@ -4198,11 +4220,11 @@
       </c>
       <c r="AD26" s="25">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>3.471691769934912E-2</v>
       </c>
       <c r="AE26" s="25">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.11857480580884835</v>
       </c>
       <c r="AF26" s="25">
         <f t="shared" si="44"/>
@@ -4272,19 +4294,22 @@
       <c r="O27" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="P27" s="1">
+        <v>30290</v>
+      </c>
       <c r="Q27" s="1">
-        <v>881552.8</v>
+        <v>911842.8</v>
       </c>
       <c r="R27" s="1">
-        <v>134298</v>
-      </c>
-      <c r="S27" s="39"/>
+        <v>106866</v>
+      </c>
+      <c r="S27" s="37"/>
       <c r="T27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U27" s="9">
         <f>ROUNDUP(U24-U25,0)</f>
-        <v>4535</v>
+        <v>4465</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" ref="V27:AK27" si="45">ROUNDUP(V24-V25,0)</f>
@@ -4320,11 +4345,11 @@
       </c>
       <c r="AD27" s="9">
         <f t="shared" si="45"/>
-        <v>2023</v>
+        <v>1953</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="45"/>
-        <v>593</v>
+        <v>522</v>
       </c>
       <c r="AF27" s="9">
         <f t="shared" si="45"/>
@@ -4394,19 +4419,22 @@
       <c r="O28" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="P28" s="1">
+        <v>178236</v>
+      </c>
       <c r="Q28" s="1">
-        <v>1130269</v>
+        <v>1308505</v>
       </c>
       <c r="R28" s="1">
-        <v>202115</v>
-      </c>
-      <c r="S28" s="40"/>
+        <v>23879</v>
+      </c>
+      <c r="S28" s="38"/>
       <c r="T28" s="19" t="s">
         <v>47</v>
       </c>
       <c r="U28" s="20">
         <f>V28+Z28+AD28+AH28</f>
-        <v>237.95</v>
+        <v>226.93</v>
       </c>
       <c r="V28" s="20">
         <f>SUM(W28:Y28)</f>
@@ -4442,11 +4470,11 @@
       </c>
       <c r="AD28" s="20">
         <f>SUM(AE28:AG28)</f>
-        <v>237.95</v>
+        <v>226.93</v>
       </c>
       <c r="AE28" s="20">
         <f>R48</f>
-        <v>237.95</v>
+        <v>226.93</v>
       </c>
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
@@ -4501,11 +4529,14 @@
       <c r="O29" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="P29" s="1">
+        <v>186241</v>
+      </c>
       <c r="Q29" s="1">
-        <v>582950</v>
+        <v>881644</v>
       </c>
       <c r="R29" s="1">
-        <v>231085</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -4551,8 +4582,11 @@
       <c r="O30" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
       <c r="Q30" s="1">
-        <v>605799.19999999995</v>
+        <v>725714.2</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -4601,8 +4635,11 @@
       <c r="O31" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="P31" s="1">
+        <v>22797</v>
+      </c>
       <c r="Q31" s="1">
-        <v>376300</v>
+        <v>399097</v>
       </c>
       <c r="R31" s="1">
         <v>14453</v>
@@ -4651,11 +4688,14 @@
       <c r="O32" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
       <c r="Q32" s="1">
-        <v>387046</v>
+        <v>399678</v>
       </c>
       <c r="R32" s="1">
-        <v>93140</v>
+        <v>97804</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -4709,55 +4749,55 @@
         <f>SUM(N21:N32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="28" t="s">
+      <c r="O33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P33" s="28">
+      <c r="P33" s="2">
         <f>SUM(P21:P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="28">
+        <v>702203.24</v>
+      </c>
+      <c r="Q33" s="2">
         <f>SUM(Q21:Q32)</f>
-        <v>19423527.780000001</v>
-      </c>
-      <c r="R33" s="28">
+        <v>20605995.52</v>
+      </c>
+      <c r="R33" s="2">
         <f>SUM(R21:R32)</f>
-        <v>2379451.3899999997</v>
+        <v>2269320.15</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="35" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35" t="s">
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -4871,15 +4911,15 @@
       </c>
       <c r="P36" s="1">
         <f>ROUND(P21/10000,2)</f>
-        <v>0</v>
+        <v>23.64</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" ref="Q36:R36" si="49">ROUND(Q21/10000,2)</f>
-        <v>1222.19</v>
+        <v>1245.82</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" si="49"/>
-        <v>157.74</v>
+        <v>172.79</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -4946,7 +4986,7 @@
       </c>
       <c r="R37" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -5005,15 +5045,15 @@
       </c>
       <c r="P38" s="1">
         <f t="shared" ref="P38:R38" si="60">ROUND(P23/10000,2)</f>
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="60"/>
-        <v>6.31</v>
+        <v>7.13</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" si="60"/>
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -5072,15 +5112,15 @@
       </c>
       <c r="P39" s="1">
         <f t="shared" ref="P39:R39" si="65">ROUND(P24/10000,2)</f>
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="65"/>
-        <v>13.4</v>
+        <v>13.69</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="65"/>
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -5139,15 +5179,15 @@
       </c>
       <c r="P40" s="1">
         <f t="shared" ref="P40:R40" si="70">ROUND(P25/10000,2)</f>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="70"/>
-        <v>124.98</v>
+        <v>148.61000000000001</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" si="70"/>
-        <v>5.07</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -5206,15 +5246,15 @@
       </c>
       <c r="P41" s="1">
         <f t="shared" ref="P41:R41" si="75">ROUND(P26/10000,2)</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="75"/>
-        <v>106.89</v>
+        <v>110.49</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" si="75"/>
-        <v>6.55</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -5273,15 +5313,15 @@
       </c>
       <c r="P42" s="1">
         <f t="shared" ref="P42:R42" si="80">ROUND(P27/10000,2)</f>
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="80"/>
-        <v>88.16</v>
+        <v>91.18</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" si="80"/>
-        <v>13.43</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -5340,15 +5380,15 @@
       </c>
       <c r="P43" s="1">
         <f t="shared" ref="P43:R43" si="85">ROUND(P28/10000,2)</f>
-        <v>0</v>
+        <v>17.82</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="85"/>
-        <v>113.03</v>
+        <v>130.85</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="85"/>
-        <v>20.21</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
@@ -5407,15 +5447,15 @@
       </c>
       <c r="P44" s="1">
         <f t="shared" ref="P44:R44" si="90">ROUND(P29/10000,2)</f>
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="90"/>
-        <v>58.3</v>
+        <v>88.16</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" si="90"/>
-        <v>23.11</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -5478,7 +5518,7 @@
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="95"/>
-        <v>60.58</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" si="95"/>
@@ -5541,11 +5581,11 @@
       </c>
       <c r="P46" s="1">
         <f t="shared" ref="P46:R46" si="100">ROUND(P31/10000,2)</f>
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="100"/>
-        <v>37.630000000000003</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" si="100"/>
@@ -5612,11 +5652,11 @@
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="105"/>
-        <v>38.700000000000003</v>
+        <v>39.97</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="105"/>
-        <v>9.31</v>
+        <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -5658,36 +5698,57 @@
       <c r="K48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="28">
+      <c r="L48" s="2">
         <f>ROUND(L33/10000,2)</f>
         <v>652.16</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="2">
         <f t="shared" si="104"/>
         <v>1990.38</v>
       </c>
-      <c r="N48" s="28">
+      <c r="N48" s="2">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="O48" s="28" t="s">
+      <c r="O48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P48" s="28">
+      <c r="P48" s="2">
         <f t="shared" ref="P48:R48" si="109">ROUND(P33/10000,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="28">
+        <v>70.22</v>
+      </c>
+      <c r="Q48" s="2">
         <f t="shared" si="109"/>
-        <v>1942.35</v>
-      </c>
-      <c r="R48" s="28">
+        <v>2060.6</v>
+      </c>
+      <c r="R48" s="2">
         <f t="shared" si="109"/>
-        <v>237.95</v>
+        <v>226.93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -5704,27 +5765,6 @@
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T4:AK28">

--- a/CHdata.xlsx
+++ b/CHdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A82A09-5BC4-4F72-ABE7-34957FE90718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CF160-A7F5-44A8-A191-2AA01570A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1000" windowWidth="20190" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出货数据 " sheetId="5" r:id="rId1"/>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1360,13 +1360,13 @@
         <v>45</v>
       </c>
       <c r="P3" s="3">
-        <v>111011</v>
+        <v>196401</v>
       </c>
       <c r="Q3" s="3">
-        <v>2927253.95</v>
+        <v>3012643.95</v>
       </c>
       <c r="R3" s="3">
-        <v>174023</v>
+        <v>162386</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="44"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="U5" s="9">
         <f>V5+Z5+AD5+AH5</f>
-        <v>420.829095</v>
+        <v>452.77909499999998</v>
       </c>
       <c r="V5" s="9">
         <f>SUM(W5:Y5)</f>
@@ -1639,11 +1639,11 @@
       </c>
       <c r="AD5" s="9">
         <f>SUM(AE5:AG5)</f>
-        <v>13.48</v>
+        <v>45.43</v>
       </c>
       <c r="AE5" s="9">
         <f>P18</f>
-        <v>13.48</v>
+        <v>45.43</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -1700,13 +1700,13 @@
         <v>2</v>
       </c>
       <c r="P6" s="3">
-        <v>41157</v>
+        <v>44007</v>
       </c>
       <c r="Q6" s="3">
-        <v>649935</v>
+        <v>652785</v>
       </c>
       <c r="R6" s="3">
-        <v>2850</v>
+        <v>1318</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="24" t="s">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="U6" s="25">
         <f>U5/U4</f>
-        <v>0.4814978203661327</v>
+        <v>0.51805388443935929</v>
       </c>
       <c r="V6" s="25">
         <f t="shared" ref="V6:AK6" si="1">V5/V4</f>
@@ -1750,11 +1750,11 @@
       </c>
       <c r="AD6" s="25">
         <f t="shared" si="1"/>
-        <v>5.3758595193790171E-2</v>
+        <v>0.18117603706631211</v>
       </c>
       <c r="AE6" s="25">
         <f t="shared" si="1"/>
-        <v>0.18361120191783806</v>
+        <v>0.61880244088482061</v>
       </c>
       <c r="AF6" s="25">
         <f t="shared" si="1"/>
@@ -1826,13 +1826,13 @@
         <v>3</v>
       </c>
       <c r="P7" s="3">
-        <v>23824</v>
+        <v>257853</v>
       </c>
       <c r="Q7" s="3">
-        <v>981208</v>
+        <v>1215237</v>
       </c>
       <c r="R7" s="3">
-        <v>71734</v>
+        <v>37111</v>
       </c>
       <c r="S7" s="37"/>
       <c r="T7" s="8" t="s">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="U7" s="9">
         <f>ROUNDUP(U4-U5,0)</f>
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" ref="V7:AK7" si="2">ROUNDUP(V4-V5,0)</f>
@@ -1876,11 +1876,11 @@
       </c>
       <c r="AD7" s="9">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" si="2"/>
@@ -1960,15 +1960,15 @@
       </c>
       <c r="P8" s="4">
         <f>SUM(P3:P7)</f>
-        <v>175992</v>
+        <v>498261</v>
       </c>
       <c r="Q8" s="4">
         <f>SUM(Q3:Q7)</f>
-        <v>5468350.8499999996</v>
+        <v>5790619.8499999996</v>
       </c>
       <c r="R8" s="4">
         <f>SUM(R3:R7)</f>
-        <v>248607</v>
+        <v>200815</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="19" t="s">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="U8" s="20">
         <f>V8+Z8+AD8+AH8</f>
-        <v>24.58</v>
+        <v>19.95</v>
       </c>
       <c r="V8" s="20">
         <f>SUM(W8:Y8)</f>
@@ -2007,11 +2007,11 @@
       </c>
       <c r="AD8" s="20">
         <f>SUM(AE8:AG8)</f>
-        <v>24.58</v>
+        <v>19.95</v>
       </c>
       <c r="AE8" s="20">
         <f>R18</f>
-        <v>24.58</v>
+        <v>19.95</v>
       </c>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
@@ -2079,15 +2079,15 @@
       </c>
       <c r="P9" s="4" cm="1">
         <f t="array" ref="P9">SUM(SUMIFS(P3:P7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>134835</v>
+        <v>454254</v>
       </c>
       <c r="Q9" s="4" cm="1">
         <f t="array" ref="Q9">SUM(SUMIFS(Q3:Q7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>4216365.95</v>
+        <v>4535784.95</v>
       </c>
       <c r="R9" s="4" cm="1">
         <f t="array" ref="R9">SUM(SUMIFS(R3:R7,O3:O7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>245757</v>
+        <v>199497</v>
       </c>
       <c r="S9" s="36" t="s">
         <v>1</v>
@@ -2435,15 +2435,15 @@
       </c>
       <c r="P12" s="28">
         <f>ROUND(P3/10000,2)</f>
-        <v>11.1</v>
+        <v>19.64</v>
       </c>
       <c r="Q12" s="28">
         <f t="shared" ref="Q12:R12" si="9">ROUND(Q3/10000,2)</f>
-        <v>292.73</v>
+        <v>301.26</v>
       </c>
       <c r="R12" s="28">
         <f t="shared" si="9"/>
-        <v>17.399999999999999</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="7" t="s">
@@ -2833,15 +2833,15 @@
       </c>
       <c r="P15" s="29">
         <f t="shared" ref="P15:R15" si="23">ROUND(P6/10000,2)</f>
-        <v>4.12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="23"/>
-        <v>64.989999999999995</v>
+        <v>65.28</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="23"/>
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="S15" s="37"/>
       <c r="T15" s="7" t="s">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="U15" s="9">
         <f>V15+Z15+AD15+AH15</f>
-        <v>64.096699999999998</v>
+        <v>64.3767</v>
       </c>
       <c r="V15" s="9">
         <f>SUM(W15:Y15)</f>
@@ -2881,11 +2881,11 @@
       </c>
       <c r="AD15" s="9">
         <f>SUM(AE15:AG15)</f>
-        <v>4.12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE15" s="9">
         <f>P15</f>
-        <v>4.12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -2953,15 +2953,15 @@
       </c>
       <c r="P16" s="28">
         <f t="shared" ref="P16:R16" si="27">ROUND(P7/10000,2)</f>
-        <v>2.38</v>
+        <v>25.79</v>
       </c>
       <c r="Q16" s="28">
         <f t="shared" si="27"/>
-        <v>98.12</v>
+        <v>121.52</v>
       </c>
       <c r="R16" s="28">
         <f t="shared" si="27"/>
-        <v>7.17</v>
+        <v>3.71</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="13" t="s">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="U16" s="25">
         <f>U15/U14</f>
-        <v>0.36418579545454544</v>
+        <v>0.36577670454545452</v>
       </c>
       <c r="V16" s="25">
         <f t="shared" ref="V16:AK16" si="28">V15/V14</f>
@@ -3005,11 +3005,11 @@
       </c>
       <c r="AD16" s="25">
         <f t="shared" si="28"/>
-        <v>8.1593206375360439E-2</v>
+        <v>8.7138375740676205E-2</v>
       </c>
       <c r="AE16" s="25">
         <f t="shared" si="28"/>
-        <v>0.27867965367965369</v>
+        <v>0.29761904761904762</v>
       </c>
       <c r="AF16" s="25">
         <f t="shared" si="28"/>
@@ -3092,15 +3092,15 @@
       </c>
       <c r="P17" s="28">
         <f t="shared" ref="P17:R17" si="32">ROUND(P8/10000,2)</f>
-        <v>17.600000000000001</v>
+        <v>49.83</v>
       </c>
       <c r="Q17" s="28">
         <f t="shared" si="32"/>
-        <v>546.84</v>
+        <v>579.05999999999995</v>
       </c>
       <c r="R17" s="28">
         <f t="shared" si="32"/>
-        <v>24.86</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="S17" s="37"/>
       <c r="T17" s="7" t="s">
@@ -3231,15 +3231,15 @@
       </c>
       <c r="P18" s="29">
         <f t="shared" ref="P18:R18" si="37">ROUND(P9/10000,2)</f>
-        <v>13.48</v>
+        <v>45.43</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="37"/>
-        <v>421.64</v>
+        <v>453.58</v>
       </c>
       <c r="R18" s="29">
         <f t="shared" si="37"/>
-        <v>24.58</v>
+        <v>19.95</v>
       </c>
       <c r="S18" s="38"/>
       <c r="T18" s="19" t="s">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="U18" s="20">
         <f>V18+Z18+AD18+AH18</f>
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="V18" s="20">
         <f>SUM(W18:Y18)</f>
@@ -3278,11 +3278,11 @@
       </c>
       <c r="AD18" s="20">
         <f>SUM(AE18:AG18)</f>
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="AE18" s="20">
         <f>R15</f>
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="U20" s="9">
         <f>U15+U10+U5</f>
-        <v>544.58477500000004</v>
+        <v>576.81477499999994</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="38"/>
@@ -3499,11 +3499,11 @@
       </c>
       <c r="AD20" s="9">
         <f t="shared" si="38"/>
-        <v>17.600000000000001</v>
+        <v>49.83</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="38"/>
-        <v>17.600000000000001</v>
+        <v>49.83</v>
       </c>
       <c r="AF20" s="9">
         <f t="shared" si="38"/>
@@ -3580,7 +3580,7 @@
         <v>12458247.300000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1727894</v>
+        <v>1870883</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="13" t="s">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="U21" s="25">
         <f>U20/U19</f>
-        <v>0.45382064583333337</v>
+        <v>0.48067897916666663</v>
       </c>
       <c r="V21" s="25">
         <f t="shared" ref="V21:AK21" si="39">V20/V19</f>
@@ -3624,11 +3624,11 @@
       </c>
       <c r="AD21" s="25">
         <f t="shared" si="39"/>
-        <v>5.1121180434530039E-2</v>
+        <v>0.14473684210526316</v>
       </c>
       <c r="AE21" s="25">
         <f t="shared" si="39"/>
-        <v>0.17460317460317459</v>
+        <v>0.494345238095238</v>
       </c>
       <c r="AF21" s="25">
         <f t="shared" si="39"/>
@@ -3705,7 +3705,7 @@
         <v>721909.47</v>
       </c>
       <c r="R22" s="1">
-        <v>77880</v>
+        <v>81450</v>
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="7" t="s">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="U22" s="9">
         <f>ROUNDUP(U19-U20,0)</f>
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" ref="V22:AK22" si="40">ROUNDUP(V19-V20,0)</f>
@@ -3749,11 +3749,11 @@
       </c>
       <c r="AD22" s="9">
         <f t="shared" si="40"/>
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="40"/>
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="AF22" s="9">
         <f t="shared" si="40"/>
@@ -3830,7 +3830,7 @@
         <v>71340.399999999994</v>
       </c>
       <c r="R23" s="1">
-        <v>4509</v>
+        <v>8616</v>
       </c>
       <c r="S23" s="38"/>
       <c r="T23" s="19" t="s">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="U23" s="20">
         <f>U8+U13+U18</f>
-        <v>24.869999999999997</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="V23" s="20">
         <f>SUM(W23:Y23)</f>
@@ -3874,11 +3874,11 @@
       </c>
       <c r="AD23" s="20">
         <f>SUM(AE23:AG23)</f>
-        <v>24.869999999999997</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="AE23" s="20">
         <f>R18+R13+R15</f>
-        <v>24.869999999999997</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
@@ -4060,13 +4060,13 @@
         <v>54</v>
       </c>
       <c r="P25" s="1">
-        <v>1080</v>
+        <v>49893</v>
       </c>
       <c r="Q25" s="1">
-        <v>1486143.85</v>
+        <v>1534956.85</v>
       </c>
       <c r="R25" s="1">
-        <v>137183.15</v>
+        <v>104507.15</v>
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="7" t="s">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="U25" s="9">
         <f>V25+Z25+AD25+AH25</f>
-        <v>2585.23</v>
+        <v>2593.6600000000003</v>
       </c>
       <c r="V25" s="9">
         <f>SUM(W25:Y25)</f>
@@ -4110,11 +4110,11 @@
       </c>
       <c r="AD25" s="9">
         <f>SUM(AE25:AG25)</f>
-        <v>70.22</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="AE25" s="9">
         <f>P48</f>
-        <v>70.22</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="U26" s="25">
         <f>U25/U24</f>
-        <v>0.36669929078014185</v>
+        <v>0.36789503546099295</v>
       </c>
       <c r="V26" s="25">
         <f t="shared" ref="V26:AK26" si="44">V25/V24</f>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="AD26" s="25">
         <f t="shared" si="44"/>
-        <v>3.471691769934912E-2</v>
+        <v>3.8884727670945723E-2</v>
       </c>
       <c r="AE26" s="25">
         <f t="shared" si="44"/>
-        <v>0.11857480580884835</v>
+        <v>0.13280986153326579</v>
       </c>
       <c r="AF26" s="25">
         <f t="shared" si="44"/>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="U27" s="9">
         <f>ROUNDUP(U24-U25,0)</f>
-        <v>4465</v>
+        <v>4457</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" ref="V27:AK27" si="45">ROUNDUP(V24-V25,0)</f>
@@ -4345,11 +4345,11 @@
       </c>
       <c r="AD27" s="9">
         <f t="shared" si="45"/>
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="45"/>
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AF27" s="9">
         <f t="shared" si="45"/>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="U28" s="20">
         <f>V28+Z28+AD28+AH28</f>
-        <v>226.93</v>
+        <v>235.36</v>
       </c>
       <c r="V28" s="20">
         <f>SUM(W28:Y28)</f>
@@ -4470,11 +4470,11 @@
       </c>
       <c r="AD28" s="20">
         <f>SUM(AE28:AG28)</f>
-        <v>226.93</v>
+        <v>235.36</v>
       </c>
       <c r="AE28" s="20">
         <f>R48</f>
-        <v>226.93</v>
+        <v>235.36</v>
       </c>
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
@@ -4530,13 +4530,13 @@
         <v>58</v>
       </c>
       <c r="P29" s="1">
-        <v>186241</v>
+        <v>217069</v>
       </c>
       <c r="Q29" s="1">
-        <v>881644</v>
+        <v>912472</v>
       </c>
       <c r="R29" s="1">
-        <v>44844</v>
+        <v>14016</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -4642,7 +4642,7 @@
         <v>399097</v>
       </c>
       <c r="R31" s="1">
-        <v>14453</v>
+        <v>16215</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
@@ -4689,13 +4689,13 @@
         <v>61</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>4664</v>
       </c>
       <c r="Q32" s="1">
-        <v>399678</v>
+        <v>404342</v>
       </c>
       <c r="R32" s="1">
-        <v>97804</v>
+        <v>93140</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -4754,15 +4754,15 @@
       </c>
       <c r="P33" s="2">
         <f>SUM(P21:P32)</f>
-        <v>702203.24</v>
+        <v>786508.24</v>
       </c>
       <c r="Q33" s="2">
         <f>SUM(Q21:Q32)</f>
-        <v>20605995.52</v>
+        <v>20690300.52</v>
       </c>
       <c r="R33" s="2">
         <f>SUM(R21:R32)</f>
-        <v>2269320.15</v>
+        <v>2353580.15</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17.5" x14ac:dyDescent="0.3">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="R36" s="1">
         <f t="shared" si="49"/>
-        <v>172.79</v>
+        <v>187.09</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="R37" s="1">
         <f t="shared" si="55"/>
-        <v>7.79</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="R38" s="1">
         <f t="shared" si="60"/>
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -5179,15 +5179,15 @@
       </c>
       <c r="P40" s="1">
         <f t="shared" ref="P40:R40" si="70">ROUND(P25/10000,2)</f>
-        <v>0.11</v>
+        <v>4.99</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="70"/>
-        <v>148.61000000000001</v>
+        <v>153.5</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" si="70"/>
-        <v>13.72</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -5447,15 +5447,15 @@
       </c>
       <c r="P44" s="1">
         <f t="shared" ref="P44:R44" si="90">ROUND(P29/10000,2)</f>
-        <v>18.62</v>
+        <v>21.71</v>
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="90"/>
-        <v>88.16</v>
+        <v>91.25</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" si="90"/>
-        <v>4.4800000000000004</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="R46" s="1">
         <f t="shared" si="100"/>
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -5648,15 +5648,15 @@
       </c>
       <c r="P47" s="1">
         <f t="shared" ref="P47:R47" si="105">ROUND(P32/10000,2)</f>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="105"/>
-        <v>39.97</v>
+        <v>40.43</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="105"/>
-        <v>9.7799999999999994</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="P48" s="2">
         <f t="shared" ref="P48:R48" si="109">ROUND(P33/10000,2)</f>
-        <v>70.22</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="109"/>
-        <v>2060.6</v>
+        <v>2069.0300000000002</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="109"/>
-        <v>226.93</v>
+        <v>235.36</v>
       </c>
     </row>
   </sheetData>
